--- a/Nayazu/Calculos de Pruebas.xlsx
+++ b/Nayazu/Calculos de Pruebas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="13380" windowHeight="5304" tabRatio="738" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="13380" windowHeight="5304" tabRatio="738" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DewPointTest" sheetId="11" r:id="rId1"/>
@@ -24,12 +24,36 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="acentricFactor">ComponentsData!$C$4</definedName>
+    <definedName name="methanolAcentricFactor">ComponentsData!$C$4</definedName>
+    <definedName name="methanolCriticalPressure">ComponentsData!$C$5</definedName>
+    <definedName name="methanolCriticalTemperature">ComponentsData!$C$6</definedName>
+    <definedName name="methanolPrsvKappa">ComponentsData!$C$7</definedName>
+    <definedName name="molarVolume">IdealGasTest!$C$4</definedName>
+    <definedName name="pressure">IdealGasTest!$C$8</definedName>
+    <definedName name="pressureTestMolarVolume">IdealGasTest!$C$4</definedName>
+    <definedName name="pressureTestResult">IdealGasTest!$C$6</definedName>
+    <definedName name="pressureTestTemperature">IdealGasTest!$C$5</definedName>
+    <definedName name="temperature">IdealGasTest!$C$5</definedName>
+    <definedName name="temperatureTestMolarVolume">IdealGasTest!$C$10</definedName>
+    <definedName name="temperatureTestPressure">IdealGasTest!$C$11</definedName>
+    <definedName name="temperatureTestResult">IdealGasTest!$C$12</definedName>
+    <definedName name="universalGasConstant">ComponentsData!$C$1</definedName>
+    <definedName name="volumeTestPressure">IdealGasTest!$C$8</definedName>
+    <definedName name="volumeTestResult">IdealGasTest!$C$9</definedName>
+    <definedName name="volumeTestTemperature">IdealGasTest!$C$7</definedName>
+    <definedName name="waterAcentricFactor">ComponentsData!$D$4</definedName>
+    <definedName name="waterCriticalPressure">ComponentsData!$D$5</definedName>
+    <definedName name="waterCriticalTemperature">ComponentsData!$D$6</definedName>
+    <definedName name="waterPrsvKappa">ComponentsData!$D$7</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="156">
   <si>
     <t>R [L amt / mol K ]</t>
   </si>
@@ -56,12 +80,6 @@
   </si>
   <si>
     <t>w</t>
-  </si>
-  <si>
-    <t>Pc</t>
-  </si>
-  <si>
-    <t>Tc</t>
   </si>
   <si>
     <t>b</t>
@@ -122,9 +140,6 @@
     <t>T[K]</t>
   </si>
   <si>
-    <t>prsv1</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -479,6 +494,36 @@
   </si>
   <si>
     <t>binary interaction</t>
+  </si>
+  <si>
+    <t>R [Pa m^3 / kmol K ]</t>
+  </si>
+  <si>
+    <t>Factor acéntrico</t>
+  </si>
+  <si>
+    <t>Presión crítica</t>
+  </si>
+  <si>
+    <t>Temperatura Crítica</t>
+  </si>
+  <si>
+    <t>prsv kappa</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>V [m^3 / kmol]</t>
+  </si>
+  <si>
+    <t>P [ Pa]</t>
   </si>
 </sst>
 </file>
@@ -666,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -865,6 +910,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,6 +944,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,12 +960,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,23 +1180,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="194091264"/>
-        <c:axId val="194093056"/>
+        <c:axId val="175679360"/>
+        <c:axId val="175680896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194091264"/>
+        <c:axId val="175679360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194093056"/>
+        <c:crossAx val="175680896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194093056"/>
+        <c:axId val="175680896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1204,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194091264"/>
+        <c:crossAx val="175679360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1161,7 +1216,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1589,11 +1644,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="226191232"/>
-        <c:axId val="226193792"/>
+        <c:axId val="177407488"/>
+        <c:axId val="177422336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226191232"/>
+        <c:axId val="177407488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,12 +1673,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226193792"/>
+        <c:crossAx val="177422336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226193792"/>
+        <c:axId val="177422336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1704,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226191232"/>
+        <c:crossAx val="177407488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1661,7 +1716,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1883,11 +1938,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="194450560"/>
-        <c:axId val="194452480"/>
+        <c:axId val="177447680"/>
+        <c:axId val="177449600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194450560"/>
+        <c:axId val="177447680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,12 +1967,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194452480"/>
+        <c:crossAx val="177449600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194452480"/>
+        <c:axId val="177449600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1998,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194450560"/>
+        <c:crossAx val="177447680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1952,7 +2007,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2158,23 +2213,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="226586624"/>
-        <c:axId val="226588160"/>
+        <c:axId val="179981696"/>
+        <c:axId val="179999872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226586624"/>
+        <c:axId val="179981696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226588160"/>
+        <c:crossAx val="179999872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226588160"/>
+        <c:axId val="179999872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,20 +2237,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226586624"/>
+        <c:crossAx val="179981696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2341,6 +2395,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Databank"/>
+      <sheetName val="EQFXL11A"/>
     </sheetNames>
     <definedNames>
       <definedName name="FlashTP"/>
@@ -2351,6 +2406,7 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2651,26 +2707,26 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2697,7 +2753,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="58">
         <v>647.13</v>
@@ -2710,7 +2766,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" s="58">
         <v>-7.7799999999999994E-2</v>
@@ -2723,7 +2779,7 @@
         <v>79.782876904280002</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J4" s="58">
         <v>0.98692326699999999</v>
@@ -2738,30 +2794,30 @@
       <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="G6" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
+      <c r="A6" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="G6" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="80" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" s="20">
         <v>18.239999999999998</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" s="20">
         <f>B7*J4</f>
@@ -2771,13 +2827,13 @@
         <v>18.001480390080001</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H7" s="20">
         <v>43.23</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J7" s="20">
         <f>H7*J4</f>
@@ -2789,7 +2845,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="80" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B8" s="20">
         <v>1</v>
@@ -2817,7 +2873,7 @@
       </c>
       <c r="E9" s="21"/>
       <c r="G9" s="59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H9" s="20">
         <v>0.3</v>
@@ -2837,7 +2893,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
       <c r="G10" s="59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H10" s="20">
         <v>0.7</v>
@@ -3005,13 +3061,13 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="A19" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
       <c r="G19" s="59"/>
       <c r="H19" s="20" t="str">
         <v>Zeta.Liq</v>
@@ -3088,13 +3144,13 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
-      <c r="G24" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
+      <c r="G24" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="59" t="str">
@@ -3107,7 +3163,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
       <c r="G25" s="77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H25" s="20">
         <v>345.45</v>
@@ -3128,14 +3184,14 @@
       <c r="E26" s="21"/>
       <c r="G26" s="77"/>
       <c r="H26" s="78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I26" s="78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1">
@@ -3149,7 +3205,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
       <c r="G27" s="77" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H27" s="20">
         <v>0.6</v>
@@ -3160,20 +3216,20 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21">
         <f>1/((H27/H28)+(I27/I28))</f>
-        <v>0.69562635816944218</v>
+        <v>69914.626890377302</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="G28" s="77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H28" s="20">
-        <f>ComponentsData!B5* 10^(-(7/3)*(1+ComponentsData!B4)*((ComponentsData!B6/DewPointTest!H25) -1))</f>
-        <v>1.3426403227740848</v>
+        <f>ComponentsData!C5* 10^(-(7/3)*(1+ComponentsData!C4)*((ComponentsData!C6/DewPointTest!H25) -1))</f>
+        <v>138307.05983550361</v>
       </c>
       <c r="I28" s="20">
-        <f>ComponentsData!C5* 10^(-(7/3)*(1+ComponentsData!C4)*((ComponentsData!C6/DewPointTest!H25) -1))</f>
-        <v>0.40376605397321164</v>
+        <f>ComponentsData!D5* 10^(-(7/3)*(1+ComponentsData!D4)*((ComponentsData!D6/DewPointTest!H25) -1))</f>
+        <v>40140.550924221796</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21">
@@ -3182,32 +3238,32 @@
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1">
       <c r="G29" s="77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H29" s="20">
         <f>$K$27*H27/H28</f>
-        <v>0.31086196937636124</v>
+        <v>0.30330177059738256</v>
       </c>
       <c r="I29" s="20">
         <f>$K$27*I27/I28</f>
-        <v>0.68913803062363865</v>
+        <v>0.69669822940261739</v>
       </c>
       <c r="J29" s="20">
         <f>H29+I29</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
+      <c r="A30" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
       <c r="G30" s="60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" s="14">
         <v>0.31086196937636101</v>
@@ -3220,7 +3276,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="20">
         <v>456.76499999999999</v>
@@ -3231,7 +3287,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B32" s="20">
         <v>0.56000000000000005</v>
@@ -3242,7 +3298,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B33" s="20">
         <f>1-B32</f>
@@ -3264,7 +3320,7 @@
         <v>23.1771996829134</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E34" s="21">
         <f>C34*J4</f>
@@ -3394,33 +3450,34 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="96" t="s">
-        <v>18</v>
+      <c r="A2" s="100" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="12">
-        <f>27 * (ComponentsData!B1*ComponentsData!B6)^2 / (64*ComponentsData!B5)</f>
-        <v>9.3376991040132182</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="85">
+        <f>27 * (ComponentsData!C1*ComponentsData!C6)^2 / (64*ComponentsData!C5)</f>
+        <v>947577.14010835707</v>
       </c>
       <c r="D2" s="13">
         <v>9.3240491619652257</v>
@@ -3429,11 +3486,11 @@
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="94"/>
       <c r="B3" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14">
-        <f>(ComponentsData!B1*ComponentsData!B6)/(8*ComponentsData!B5)</f>
-        <v>6.5774261946459842E-2</v>
+        <f>(ComponentsData!C1*ComponentsData!C6)/(8*ComponentsData!C5)</f>
+        <v>6.588889936912419E-2</v>
       </c>
       <c r="D3" s="15">
         <v>6.5726169627220415E-2</v>
@@ -3441,14 +3498,14 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="17">
-        <f>27 * (ComponentsData!B1*ComponentsData!B6)^2 / (64*ComponentsData!B5)</f>
-        <v>9.3376991040132182</v>
+        <f>27 * (ComponentsData!C1*ComponentsData!C6)^2 / (64*ComponentsData!C5)</f>
+        <v>947577.14010835707</v>
       </c>
       <c r="D4" s="18">
         <v>9.3240491619652257</v>
@@ -3456,45 +3513,45 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="17">
-        <f>(ComponentsData!B1*ComponentsData!B6)/(8*ComponentsData!B5)</f>
-        <v>6.5774261946459842E-2</v>
+        <f>(ComponentsData!C1*ComponentsData!C6)/(8*ComponentsData!C5)</f>
+        <v>6.588889936912419E-2</v>
       </c>
       <c r="D5" s="18">
         <v>6.5726169627220415E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="92" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12">
-        <f>27 * (ComponentsData!B1*ComponentsData!B6)^2 / (64*ComponentsData!B5)</f>
-        <v>9.3376991040132182</v>
+        <f>27 * (ComponentsData!C1*ComponentsData!C6)^2 / (64*ComponentsData!C5)</f>
+        <v>947577.14010835707</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="89"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="20">
-        <f>(ComponentsData!B1*ComponentsData!B6)/(8*ComponentsData!B5)</f>
-        <v>6.5774261946459842E-2</v>
+        <f>(ComponentsData!C1*ComponentsData!C6)/(8*ComponentsData!C5)</f>
+        <v>6.588889936912419E-2</v>
       </c>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="89"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -3504,7 +3561,7 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="89"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -3519,15 +3576,15 @@
         <v>3</v>
       </c>
       <c r="C10" s="9">
-        <f>(ComponentsData!B1*C9)/(C8-C5) - C4/(C8^2)</f>
-        <v>24.25491189149443</v>
+        <f>(ComponentsData!C1*C9)/(C8-C5) - C4/(C8^2)</f>
+        <v>2456996.529247296</v>
       </c>
       <c r="D10" s="15">
         <v>24.239911647806299</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3538,7 +3595,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="93"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -3547,17 +3604,17 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="93"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <f>ComponentsData!B1*C11/C12</f>
-        <v>1.709583333333333</v>
+        <f>ComponentsData!C1*C11/C12</f>
+        <v>173218.16666666666</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3568,7 +3625,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="93"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
@@ -3577,13 +3634,13 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="93"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <f>C15*C14/ComponentsData!B1</f>
-        <v>4283.0843285400933</v>
+        <f>C15*C14/ComponentsData!C1</f>
+        <v>4.2272064900813915E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3616,15 +3673,15 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.48508000000000001</v>
@@ -3635,7 +3692,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1.5517099999999999</v>
@@ -3646,7 +3703,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>-0.15612999999999999</v>
@@ -3657,7 +3714,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3668,54 +3725,54 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>425.87</v>
       </c>
       <c r="C6">
-        <f>B6/ComponentsData!$B$6</f>
-        <v>0.83080374561061254</v>
+        <f>B6/ComponentsData!$C$6</f>
+        <v>0.83096585365853659</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>604.23</v>
       </c>
       <c r="C7">
-        <f>B7/ComponentsData!$B$6</f>
-        <v>1.1787553648068669</v>
+        <f>B7/ComponentsData!$C$6</f>
+        <v>1.1789853658536587</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <f>B2 + B3*ComponentsData!$B$4+B4*ComponentsData!$B$4^2+B5*ComponentsData!$B$4^3</f>
-        <v>1.32157488208</v>
+        <f>B2 + B3*ComponentsData!$C$4+B4*ComponentsData!$C$4^2+B5*ComponentsData!$C$4^3</f>
+        <v>1.313098303188811</v>
       </c>
       <c r="C9">
-        <f>C2 + C3*ComponentsData!$B$4+C4*ComponentsData!$B$4^2+C5*ComponentsData!$B$4^3</f>
-        <v>1.1786359793688193</v>
+        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
+        <v>1.1705307196840293</v>
       </c>
       <c r="D9">
         <v>1.32157488208</v>
@@ -3726,15 +3783,15 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <f xml:space="preserve"> 1 + 0.5 *B9+0.3 * ComponentsData!$B$7</f>
-        <v>1.77892744104</v>
+        <f xml:space="preserve"> 1 + 0.5 *B9+0.3 * ComponentsData!$C$7</f>
+        <v>1.7746861515944055</v>
       </c>
       <c r="C10">
-        <f xml:space="preserve"> 1 + 0.5 *C9+0.3 * ComponentsData!$B$7</f>
-        <v>1.7074579896844095</v>
+        <f xml:space="preserve"> 1 + 0.5 *C9+0.3 * ComponentsData!$C$7</f>
+        <v>1.7034023598420145</v>
       </c>
       <c r="D10">
         <v>1.77892744104</v>
@@ -3745,15 +3802,15 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <f>POWER(1+ B9*(1-SQRT($C$6)) - ComponentsData!$B$7*(1-$C$6)*(0.7 -$C$6),2)</f>
-        <v>1.2671901956328315</v>
+        <f>POWER(1+ B9*(1-SQRT($C$6)) - ComponentsData!$C$7*(1-$C$6)*(0.7 -$C$6),2)</f>
+        <v>1.2652438224543587</v>
       </c>
       <c r="C11">
-        <f>POWER(1+ C9*(1-SQRT($C$6)) - ComponentsData!$B$7*(1-$C$6)*(0.7 -$C$6),2)</f>
-        <v>1.2388649417067934</v>
+        <f>POWER(1+ C9*(1-SQRT($C$6)) - ComponentsData!$C$7*(1-$C$6)*(0.7 -$C$6),2)</f>
+        <v>1.2370417632774973</v>
       </c>
       <c r="D11">
         <v>1.26719019563283</v>
@@ -3764,15 +3821,15 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <f>EXP((2*(B10-1)/B10)*(1-POWER($C$7,B10)))</f>
-        <v>0.74258381399471496</v>
+        <v>0.7435676271501791</v>
       </c>
       <c r="C12">
         <f>EXP((2*(C10-1)/C10)*(1-POWER($C$7,C10)))</f>
-        <v>0.76440879061241385</v>
+        <v>0.76538024364473822</v>
       </c>
       <c r="D12">
         <v>0.74258381399471496</v>
@@ -3783,7 +3840,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>0.42748023000000002</v>
@@ -3794,7 +3851,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="23">
         <v>8.6640350000000005E-2</v>
@@ -3804,55 +3861,55 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="97"/>
+      <c r="B16" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="1:10" ht="29.4" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="12">
-        <f>CubicAlphaTest!B13 *CubicAlphaTest!B11* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>11.989854793926185</v>
+        <f>CubicAlphaTest!B13 *CubicAlphaTest!B11* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1214845.4872515749</v>
       </c>
       <c r="C18" s="12">
-        <f>CubicAlphaTest!C13 *CubicAlphaTest!C11* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>12.537761914265747</v>
+        <f>CubicAlphaTest!C13 *CubicAlphaTest!C11* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1270442.8024434203</v>
       </c>
       <c r="D18" s="20">
         <v>11.972327904134801</v>
@@ -3862,32 +3919,32 @@
       </c>
       <c r="G18">
         <f>CubicAlphaTest!C13 *CubicAlphaTest!C11</f>
-        <v>0.56645306821972474</v>
+        <v>0.56561944626432104</v>
       </c>
       <c r="H18">
-        <f>(ComponentsData!$B$1*ComponentsData!$B$6)</f>
-        <v>42.063955999999997</v>
+        <f>(ComponentsData!$C$1*ComponentsData!$C$6)</f>
+        <v>4261166.8999999994</v>
       </c>
       <c r="I18">
-        <f xml:space="preserve"> (ComponentsData!$B$1*ComponentsData!$B$6)^2</f>
-        <v>1769.3763943699357</v>
+        <f xml:space="preserve"> (ComponentsData!$C$1*ComponentsData!$C$6)^2</f>
+        <v>18157543349655.605</v>
       </c>
       <c r="J18">
-        <f xml:space="preserve"> (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>22.133805283586888</v>
+        <f xml:space="preserve"> (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>2246108.7765531428</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="12">
-        <f>CubicAlphaTest!B13 *CubicAlphaTest!B12* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>7.0261529270041061</v>
+        <f>CubicAlphaTest!B13 *CubicAlphaTest!B12* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>713949.16954225395</v>
       </c>
       <c r="C19" s="12">
-        <f>CubicAlphaTest!C13 *CubicAlphaTest!C12* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>7.7360938220322462</v>
+        <f>CubicAlphaTest!C13 *CubicAlphaTest!C12* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>786046.07422031171</v>
       </c>
       <c r="D19" s="20">
         <v>7.0158820263030197</v>
@@ -3898,15 +3955,15 @@
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="12">
-        <f>CubicAlphaTest!B14 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.5589640608263697E-2</v>
+        <f>CubicAlphaTest!B14 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.5669098419645594E-2</v>
       </c>
       <c r="C20" s="12">
-        <f>CubicAlphaTest!C14 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.0935834797457396E-2</v>
+        <f>CubicAlphaTest!C14 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.1007181528791514E-2</v>
       </c>
       <c r="D20" s="20">
         <v>4.5556306725294003E-2</v>
@@ -3916,7 +3973,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="92" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3929,7 +3986,7 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="89"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
@@ -3977,7 +4034,7 @@
       <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3988,7 +4045,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="93"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -3997,17 +4054,17 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="93"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <f>ComponentsData!B1*C29/C30</f>
-        <v>1.709583333333333</v>
+        <f>ComponentsData!C1*C29/C30</f>
+        <v>173218.16666666666</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4018,7 +4075,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="93"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
@@ -4027,13 +4084,13 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="93"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="2">
-        <f>C33*C32/ComponentsData!B1</f>
-        <v>4283.0843285400933</v>
+        <f>C33*C32/ComponentsData!C1</f>
+        <v>4.2272064900813915E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4052,98 +4109,113 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>8.2059999999999994E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:6">
+      <c r="A1" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="2">
+        <v>8314.4719999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="83"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.57199999999999995</v>
+        <v>147</v>
       </c>
       <c r="C4">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.56583099999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.34486099999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>79.94</v>
-      </c>
-      <c r="C5">
-        <v>221.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="81">
+        <v>8084000</v>
+      </c>
+      <c r="D5" s="81">
+        <v>22064000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>512.6</v>
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
       </c>
       <c r="C6">
-        <v>647.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>512.5</v>
+      </c>
+      <c r="D6">
+        <v>647.096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>0.39378999999999997</v>
+      </c>
+      <c r="D7">
+        <v>-7.6700000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>-7.7799999999999994E-2</v>
+      </c>
+      <c r="D9">
         <v>0.39379999999999998</v>
       </c>
-      <c r="C7">
-        <v>-6.6549999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9">
-        <v>-7.7799999999999994E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="E10" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4163,27 +4235,27 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6">
         <v>0.39378999999999997</v>
@@ -4191,7 +4263,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" s="81">
         <v>-7.6699000000000003E-2</v>
@@ -4199,7 +4271,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B8">
         <v>-0.18000000715255701</v>
@@ -4207,7 +4279,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B9">
         <v>0.14990999999999999</v>
@@ -4215,16 +4287,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4411,26 +4483,26 @@
   <sheetData>
     <row r="2" spans="1:22">
       <c r="B2" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="56"/>
       <c r="G2" s="58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H2" s="58" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J2" s="56"/>
       <c r="K2" s="56"/>
@@ -4464,7 +4536,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="58">
         <v>647.13</v>
@@ -4477,7 +4549,7 @@
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H4" s="58">
         <f>I3</f>
@@ -4495,40 +4567,40 @@
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1">
       <c r="N6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q6" t="s">
         <v>8</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="A7" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7" s="71">
         <v>8.2000000000000003E-2</v>
@@ -4538,7 +4610,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
       <c r="N7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O7">
         <v>369.83</v>
@@ -4550,13 +4622,13 @@
         <v>0.15229100000000001</v>
       </c>
       <c r="S7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="59"/>
       <c r="B8" s="74" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="62">
         <v>425.87</v>
@@ -4568,13 +4640,13 @@
       <c r="H8" s="63"/>
       <c r="I8" s="64"/>
       <c r="J8" s="57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K8" s="58">
         <v>0.98692326699999999</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O8">
         <v>647.13</v>
@@ -4586,7 +4658,7 @@
         <v>0.34486099999999997</v>
       </c>
       <c r="S8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V8">
         <v>-7.7799999999999994E-2</v>
@@ -4595,7 +4667,7 @@
     <row r="9" spans="1:22">
       <c r="A9" s="59"/>
       <c r="B9" s="74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="62">
         <v>0.5</v>
@@ -4630,7 +4702,7 @@
     <row r="10" spans="1:22">
       <c r="A10" s="59"/>
       <c r="B10" s="74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="62">
         <v>0.5</v>
@@ -4639,7 +4711,7 @@
       <c r="E10" s="63"/>
       <c r="F10" s="63"/>
       <c r="G10" s="74" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H10" s="63"/>
       <c r="I10" s="64"/>
@@ -4652,7 +4724,7 @@
         <v>11.104896021771838</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -4672,7 +4744,7 @@
         <v>0.70831702879276914</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="62">
         <v>0.70831702879276903</v>
@@ -4680,7 +4752,7 @@
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
       <c r="G12" s="74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H12" s="62">
         <v>10.959680261502365</v>
@@ -4700,17 +4772,17 @@
         <v>0.29168297120723086</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" s="62">
         <v>0.29168297120723102</v>
       </c>
       <c r="E13" s="63"/>
       <c r="F13" s="74" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H13" s="75">
         <v>4.0559699074191963E-2</v>
@@ -4725,15 +4797,15 @@
         <v>3</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="74" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H14" s="76">
         <v>2.8749812073213978</v>
@@ -4745,18 +4817,18 @@
     <row r="15" spans="1:22">
       <c r="A15" s="59"/>
       <c r="B15" s="62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
-      <c r="F15" s="85" t="s">
-        <v>57</v>
+      <c r="F15" s="89" t="s">
+        <v>54</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H15" s="62">
         <v>1.2785871337813355</v>
@@ -4775,7 +4847,7 @@
       </c>
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
-      <c r="F16" s="86"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="74"/>
       <c r="H16" s="63"/>
       <c r="I16" s="64"/>
@@ -4792,11 +4864,11 @@
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
-      <c r="F17" s="85" t="s">
-        <v>58</v>
+      <c r="F17" s="89" t="s">
+        <v>55</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H17" s="62">
         <v>0.90255754648474673</v>
@@ -4812,14 +4884,14 @@
     <row r="18" spans="1:15">
       <c r="A18" s="59"/>
       <c r="B18" s="62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="74"/>
       <c r="H18" s="63"/>
       <c r="I18" s="64"/>
@@ -4833,10 +4905,10 @@
     <row r="19" spans="1:15">
       <c r="A19" s="59"/>
       <c r="B19" s="62" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="20"/>
@@ -4875,13 +4947,13 @@
       <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
+      <c r="A23" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:15">
@@ -4889,7 +4961,7 @@
         <v>15.11187400216247</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
@@ -4900,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="63"/>
       <c r="D25" s="62">
@@ -4916,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
@@ -4924,10 +4996,10 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
@@ -4946,10 +5018,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C29" s="63"/>
       <c r="D29" s="63"/>
@@ -4957,10 +5029,10 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
@@ -5012,7 +5084,7 @@
     </row>
     <row r="35" spans="1:20" ht="15" thickBot="1">
       <c r="I35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J35">
         <f>L53</f>
@@ -5021,15 +5093,15 @@
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
+      <c r="A36" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -5070,13 +5142,13 @@
         <v>5.0506175231482917</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" s="63"/>
       <c r="D37" s="63"/>
       <c r="E37" s="64"/>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J37">
         <f t="shared" ref="J37:T37" si="0">1-J36</f>
@@ -5128,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="62">
@@ -5139,7 +5211,7 @@
         <v>4.9845719463129603</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J38">
         <f t="array" ref="J38:J48">[1]!Tburbuja($J$35,$C$3:$E$4,J36:J37,,$H$3:$I$4)</f>
@@ -5191,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
@@ -5232,10 +5304,10 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="63"/>
@@ -5320,10 +5392,10 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
@@ -5364,10 +5436,10 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
@@ -5486,13 +5558,13 @@
       </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="84"/>
+      <c r="A46" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
       <c r="J46" t="str">
         <v>Zeta.Liq</v>
       </c>
@@ -5529,7 +5601,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" s="20">
         <v>345.45</v>
@@ -5574,14 +5646,14 @@
     <row r="48" spans="1:20">
       <c r="A48" s="77"/>
       <c r="B48" s="78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C48" s="78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J48" t="e">
         <v>#N/A</v>
@@ -5619,7 +5691,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B49" s="20">
         <v>0.6</v>
@@ -5630,20 +5702,20 @@
       <c r="D49" s="20"/>
       <c r="E49" s="21">
         <f>B49*B50+C49*C50</f>
-        <v>0.96709061525373552</v>
+        <v>99040.456270990879</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B50" s="20">
-        <f>ComponentsData!B5* 10^(-(7/3)*(1+ComponentsData!B4)*((ComponentsData!B6/BubblePointTest!B47) -1))</f>
-        <v>1.3426403227740848</v>
+        <f>ComponentsData!C5* 10^(-(7/3)*(1+ComponentsData!C4)*((ComponentsData!C6/BubblePointTest!B47) -1))</f>
+        <v>138307.05983550361</v>
       </c>
       <c r="C50" s="20">
-        <f>ComponentsData!C5* 10^(-(7/3)*(1+ComponentsData!C4)*((ComponentsData!C6/BubblePointTest!B47) -1))</f>
-        <v>0.40376605397321164</v>
+        <f>ComponentsData!D5* 10^(-(7/3)*(1+ComponentsData!D4)*((ComponentsData!D6/BubblePointTest!B47) -1))</f>
+        <v>40140.550924221796</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="21">
@@ -5652,15 +5724,15 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B51" s="20">
         <f>B50*B49/$E$49</f>
-        <v>0.83299763327047671</v>
+        <v>0.83788220516920608</v>
       </c>
       <c r="C51" s="20">
         <f>C50*C49/$E$49</f>
-        <v>0.16700236672952329</v>
+        <v>0.16211779483079394</v>
       </c>
       <c r="D51" s="20">
         <f>SUM(B51:C51)</f>
@@ -5668,15 +5740,15 @@
       </c>
       <c r="E51" s="21"/>
       <c r="J51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" thickBot="1">
       <c r="A52" s="60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52" s="14">
         <v>0.83299763327047704</v>
@@ -5687,43 +5759,43 @@
       <c r="D52" s="14"/>
       <c r="E52" s="15"/>
       <c r="J52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="J53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L53">
         <f>0.14991/K8</f>
         <v>0.15189630745629182</v>
       </c>
       <c r="M53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" thickBot="1">
       <c r="J54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="84"/>
+      <c r="A55" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="88"/>
       <c r="J55">
         <v>0</v>
       </c>
@@ -5736,13 +5808,13 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B56" s="20">
         <v>12.34</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D56" s="20">
         <f>B56*K8</f>
@@ -5763,7 +5835,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B57" s="20">
         <v>1</v>
@@ -5946,7 +6018,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="J69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K69">
         <v>400</v>
@@ -5954,7 +6026,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="J70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -5992,7 +6064,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="J71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K71">
         <f t="shared" ref="K71:U71" si="1">1-K70</f>
@@ -6041,7 +6113,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="J72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K72">
         <f t="array" ref="K72:K81">[1]!Pburbuja($K$69,$C$3:$E$4,K70:K71,,$H$3:$I$4)</f>
@@ -6424,7 +6496,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -6435,15 +6507,15 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.48508000000000001</v>
@@ -6454,7 +6526,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1.5517099999999999</v>
@@ -6465,7 +6537,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>-0.15612999999999999</v>
@@ -6476,7 +6548,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6487,7 +6559,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>425.87</v>
@@ -6495,32 +6567,32 @@
     </row>
     <row r="7" spans="1:5">
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <f>B2 + B3*ComponentsData!$B$4+B4*ComponentsData!$B$4^2+B5*ComponentsData!$B$4^3</f>
-        <v>1.32157488208</v>
+        <f>B2 + B3*ComponentsData!$C$4+B4*ComponentsData!$C$4^2+B5*ComponentsData!$C$4^3</f>
+        <v>1.313098303188811</v>
       </c>
       <c r="C9">
-        <f>C2 + C3*ComponentsData!$B$4+C4*ComponentsData!$B$4^2+C5*ComponentsData!$B$4^3</f>
-        <v>1.1786359793688193</v>
+        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
+        <v>1.1705307196840293</v>
       </c>
       <c r="D9">
         <v>1.32157488208</v>
@@ -6531,15 +6603,15 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <f>POWER(1+ B9*(1-SQRT($B$6/ComponentsData!$B$6)),2)</f>
-        <v>1.2476444127925317</v>
+        <f>POWER(1+ B9*(1-SQRT($B$6/ComponentsData!$C$6)),2)</f>
+        <v>1.2457081609438747</v>
       </c>
       <c r="C10">
-        <f>POWER(1+ C9*(1-SQRT($B$6/ComponentsData!$B$6)),2)</f>
-        <v>1.2195396987145104</v>
+        <f>POWER(1+ C9*(1-SQRT($B$6/ComponentsData!$C$6)),2)</f>
+        <v>1.2177259036874013</v>
       </c>
       <c r="D10">
         <v>1.2476444127925299</v>
@@ -6550,15 +6622,15 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B11">
-        <f>(1/B10^0.5)*(-B9*SQRT(B6/ComponentsData!B6))</f>
-        <v>-1.0784390017006</v>
+        <f>(1/B10^0.5)*(-B9*SQRT(B6/ComponentsData!C6))</f>
+        <v>-1.0724589411282648</v>
       </c>
       <c r="C11">
-        <f>(1/C10^0.5)*(-C9*SQRT(B6/ComponentsData!B6))</f>
-        <v>-0.97281654061186107</v>
+        <f>(1/C10^0.5)*(-C9*SQRT(B6/ComponentsData!C6))</f>
+        <v>-0.9669402366736497</v>
       </c>
       <c r="D11">
         <v>-1.0784390017006</v>
@@ -6595,15 +6667,15 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.48508000000000001</v>
@@ -6614,7 +6686,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1.5517099999999999</v>
@@ -6625,7 +6697,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>-0.15612999999999999</v>
@@ -6636,7 +6708,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6647,54 +6719,54 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>425.87</v>
       </c>
       <c r="C6">
-        <f>B6/ComponentsData!$B$6</f>
-        <v>0.83080374561061254</v>
+        <f>B6/ComponentsData!$C$6</f>
+        <v>0.83096585365853659</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>604.23</v>
       </c>
       <c r="C7">
-        <f>B7/ComponentsData!$B$6</f>
-        <v>1.1787553648068669</v>
+        <f>B7/ComponentsData!$C$6</f>
+        <v>1.1789853658536587</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <f>B2 + B3*ComponentsData!$B$4+B4*ComponentsData!$B$4^2+B5*ComponentsData!$B$4^3</f>
-        <v>1.32157488208</v>
+        <f>B2 + B3*ComponentsData!$C$4+B4*ComponentsData!$C$4^2+B5*ComponentsData!$C$4^3</f>
+        <v>1.313098303188811</v>
       </c>
       <c r="C9">
-        <f>C2 + C3*ComponentsData!$B$4+C4*ComponentsData!$B$4^2+C5*ComponentsData!$B$4^3</f>
-        <v>1.1786359793688193</v>
+        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
+        <v>1.1705307196840293</v>
       </c>
       <c r="D9">
         <v>1.32157488208</v>
@@ -6705,15 +6777,15 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <f xml:space="preserve"> 1 + 0.5 *B9+0.3 * ComponentsData!$B$7</f>
-        <v>1.77892744104</v>
+        <f xml:space="preserve"> 1 + 0.5 *B9+0.3 * ComponentsData!$C$7</f>
+        <v>1.7746861515944055</v>
       </c>
       <c r="C10">
-        <f xml:space="preserve"> 1 + 0.5 *C9+0.3 * ComponentsData!$B$7</f>
-        <v>1.7074579896844095</v>
+        <f xml:space="preserve"> 1 + 0.5 *C9+0.3 * ComponentsData!$C$7</f>
+        <v>1.7034023598420145</v>
       </c>
       <c r="D10">
         <v>1.77892744104</v>
@@ -6724,15 +6796,15 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <f>POWER(1+ B9*(1-SQRT($B6/ComponentsData!$B$6)) - ComponentsData!$B$7*(1-$C6)*(0.7 - $C6),2)</f>
-        <v>1.2671901956328315</v>
+        <f>POWER(1+ B9*(1-SQRT($B6/ComponentsData!$C$6)) - ComponentsData!$C$7*(1-$C6)*(0.7 - $C6),2)</f>
+        <v>1.2652438224543587</v>
       </c>
       <c r="C11">
-        <f>POWER(1+ C9*(1-SQRT($B6/ComponentsData!$B$6)) - ComponentsData!$B$7*(1-$C6)*(0.7 - $C6),2)</f>
-        <v>1.2388649417067934</v>
+        <f>POWER(1+ C9*(1-SQRT($B6/ComponentsData!$C$6)) - ComponentsData!$C$7*(1-$C6)*(0.7 - $C6),2)</f>
+        <v>1.2370417632774973</v>
       </c>
       <c r="D11">
         <v>1.26719019563283</v>
@@ -6743,15 +6815,15 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <f>EXP((2*(B10-1)/B10)*(1-POWER($C$7,B10)))</f>
-        <v>0.74258381399471496</v>
+        <v>0.7435676271501791</v>
       </c>
       <c r="C12">
         <f>EXP((2*(C10-1)/C10)*(1-POWER($C$7,C10)))</f>
-        <v>0.76440879061241385</v>
+        <v>0.76538024364473822</v>
       </c>
       <c r="D12">
         <v>0.74258381399471496</v>
@@ -6762,15 +6834,15 @@
     </row>
     <row r="13" spans="1:5" ht="28.8">
       <c r="A13" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B13">
-        <f>(1/B11^0.5)*(-B9*SQRT($C$6)+ComponentsData!$B$7*(3.4*Mathias_StryjekVeraTest!$C$6-4*Mathias_StryjekVeraTest!$C$6^2))</f>
-        <v>-1.0477727972446251</v>
+        <f>(1/B11^0.5)*(-B9*SQRT($C$6)+ComponentsData!$C$7*(3.4*Mathias_StryjekVeraTest!$C$6-4*Mathias_StryjekVeraTest!$C$6^2))</f>
+        <v>-1.0419982226903439</v>
       </c>
       <c r="C13">
-        <f>(1/C11^0.5)*(-C9*SQRT($C$6)+ComponentsData!$B$7*(3.4*Mathias_StryjekVeraTest!$C$6-4*Mathias_StryjekVeraTest!$C$6^2))</f>
-        <v>-0.94262879172162761</v>
+        <f>(1/C11^0.5)*(-C9*SQRT($C$6)+ComponentsData!$C$7*(3.4*Mathias_StryjekVeraTest!$C$6-4*Mathias_StryjekVeraTest!$C$6^2))</f>
+        <v>-0.93696130864491955</v>
       </c>
       <c r="D13">
         <v>-1.08108869319346</v>
@@ -6781,15 +6853,15 @@
     </row>
     <row r="14" spans="1:5" ht="28.8">
       <c r="A14" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <f>-2*(B10-1)*POWER(C7,B10)</f>
-        <v>-2.0872984378795536</v>
+        <v>-2.075203929205685</v>
       </c>
       <c r="C14">
         <f>-2*(C10-1)*POWER(C7,C10)</f>
-        <v>-1.8736289507717399</v>
+        <v>-1.8622647320442633</v>
       </c>
       <c r="D14">
         <v>-1.7071997571927884</v>
@@ -6819,29 +6891,29 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K1" s="58">
         <v>0.98692326699999999</v>
@@ -6871,7 +6943,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="58">
         <v>647.13</v>
@@ -6884,7 +6956,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" s="58">
         <v>-7.7799999999999994E-2</v>
@@ -6893,15 +6965,15 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1"/>
     <row r="5" spans="1:11">
-      <c r="A5" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="A5" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>9.1456</v>
@@ -6909,13 +6981,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>9.1456</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <f>B6*K1</f>
@@ -6925,7 +6997,7 @@
         <v>9.0260054306752</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>405.66579999999999</v>
@@ -6933,13 +7005,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>423.45</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -6947,7 +7019,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>0.45</v>
@@ -6959,7 +7031,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>0.55000000000000004</v>
@@ -6988,10 +7060,10 @@
         <v>Y(vap)</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7109,15 +7181,15 @@
     <row r="1" spans="1:7">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="44">
         <v>0.48508000000000001</v>
@@ -7128,7 +7200,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="44">
         <v>1.5517099999999999</v>
@@ -7139,7 +7211,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="44">
         <v>-0.15612999999999999</v>
@@ -7150,7 +7222,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="44">
         <v>0</v>
@@ -7161,7 +7233,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="44">
         <v>1</v>
@@ -7183,61 +7255,61 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="44">
         <v>425.87</v>
       </c>
       <c r="C8" s="44">
-        <f>B8/ComponentsData!$B$6</f>
-        <v>0.83080374561061254</v>
+        <f>B8/ComponentsData!$C$6</f>
+        <v>0.83096585365853659</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="44">
         <v>604.23</v>
       </c>
       <c r="C9" s="44">
-        <f>B9/ComponentsData!$B$6</f>
-        <v>1.1787553648068669</v>
+        <f>B9/ComponentsData!$C$6</f>
+        <v>1.1789853658536587</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="44">
-        <f>B8/ComponentsData!C6</f>
-        <v>0.65809033733562039</v>
+        <f>B8/ComponentsData!D6</f>
+        <v>0.65812491500488335</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="44">
-        <f>B2 + B3*ComponentsData!$B$4+B4*ComponentsData!$B$4^2+B5*ComponentsData!$B$4^3</f>
-        <v>1.32157488208</v>
+        <f>B2 + B3*ComponentsData!$C$4+B4*ComponentsData!$C$4^2+B5*ComponentsData!$C$4^3</f>
+        <v>1.313098303188811</v>
       </c>
       <c r="C11" s="44">
-        <f>C2 + C3*ComponentsData!$B$4+C4*ComponentsData!$B$4^2+C5*ComponentsData!$B$4^3</f>
-        <v>1.1786359793688193</v>
+        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
+        <v>1.1705307196840293</v>
       </c>
       <c r="D11" s="44">
         <v>1.32157488208</v>
@@ -7246,24 +7318,24 @@
         <v>1.1786359793688199</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="44">
-        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
-        <v>0.8718820433972736</v>
+        <f>C2 + C3*ComponentsData!$D$4+C4*ComponentsData!$D$4^2+C5*ComponentsData!$D$4^3</f>
+        <v>0.87306910063967647</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="44">
-        <f xml:space="preserve"> 1 + 0.5 *B11+0.3 * ComponentsData!$B$7</f>
-        <v>1.77892744104</v>
+        <f xml:space="preserve"> 1 + 0.5 *B11+0.3 * ComponentsData!$C$7</f>
+        <v>1.7746861515944055</v>
       </c>
       <c r="C12" s="44">
-        <f xml:space="preserve"> 1 + 0.5 *C11+0.3 * ComponentsData!$B$7</f>
-        <v>1.7074579896844095</v>
+        <f xml:space="preserve"> 1 + 0.5 *C11+0.3 * ComponentsData!$C$7</f>
+        <v>1.7034023598420145</v>
       </c>
       <c r="D12" s="44">
         <v>1.77892744104</v>
@@ -7272,24 +7344,24 @@
         <v>1.70745798968441</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="44">
-        <f xml:space="preserve"> 1 + 0.5 *G11+0.3 * ComponentsData!$C$7</f>
-        <v>1.4159760216986368</v>
+        <f xml:space="preserve"> 1 + 0.5 *G11+0.3 * ComponentsData!$D$7</f>
+        <v>1.4135245503198381</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="44">
-        <f>POWER(1+ B11*(1-SQRT($C$8)) + ComponentsData!$B$7*(1-$C$8)*(0.7 -$C$8),2)</f>
-        <v>1.228250545865577</v>
+        <f>POWER(1+ B11*(1-SQRT($C$8)) + ComponentsData!$C$7*(1-$C$8)*(0.7 -$C$8),2)</f>
+        <v>1.226324492720664</v>
       </c>
       <c r="C13" s="44">
-        <f>POWER(1+ C11*(1-SQRT($C$8)) + ComponentsData!$B$7*(1-$C$8)*(0.7 -$C$8),2)</f>
-        <v>1.2003663716355728</v>
+        <f>POWER(1+ C11*(1-SQRT($C$8)) + ComponentsData!$C$7*(1-$C$8)*(0.7 -$C$8),2)</f>
+        <v>1.1985620373845787</v>
       </c>
       <c r="D13" s="44">
         <v>1.26719019563283</v>
@@ -7298,24 +7370,24 @@
         <v>1.2388649417067901</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="44">
-        <f>POWER(1+ G11*(1-SQRT($G$10)) - ComponentsData!$C$7*(1-$G$10)*(0.7 -$G$10),2)</f>
-        <v>1.3584853993860753</v>
+        <f>POWER(1+ G11*(1-SQRT($G$10)) - ComponentsData!$D$7*(1-$G$10)*(0.7 -$G$10),2)</f>
+        <v>1.359301171367906</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="44">
         <f>EXP((2*(B12-1)/B12)*(1-POWER($C$9,B12)))</f>
-        <v>0.74258381399471496</v>
+        <v>0.7435676271501791</v>
       </c>
       <c r="C14" s="44">
         <f>EXP((2*(C12-1)/C12)*(1-POWER($C$9,C12)))</f>
-        <v>0.76440879061241385</v>
+        <v>0.76538024364473822</v>
       </c>
       <c r="D14" s="44">
         <v>0.74258381399471496</v>
@@ -7326,7 +7398,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="44">
         <v>0.42748023000000002</v>
@@ -7337,7 +7409,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" s="45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="23">
         <v>8.6640350000000005E-2</v>
@@ -7347,61 +7419,61 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="G17" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="90"/>
+      <c r="G17" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="96"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="93"/>
-      <c r="G18" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="91"/>
+      <c r="B18" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="G18" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:10" ht="29.4" thickBot="1">
       <c r="A19" s="40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4">
-        <f>'CubicTest  (2)'!B15 *'CubicTest  (2)'!B13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>11.621417010833518</v>
+        <f>'CubicTest  (2)'!B15 *'CubicTest  (2)'!B13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1177476.427427107</v>
       </c>
       <c r="C20" s="4">
-        <f>'CubicTest  (2)'!C15 *'CubicTest  (2)'!C13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>12.148142441357232</v>
+        <f>'CubicTest  (2)'!C15 *'CubicTest  (2)'!C13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1230924.0955962627</v>
       </c>
       <c r="D20" s="49">
         <v>11.972327904134801</v>
@@ -7410,29 +7482,29 @@
         <v>12.5194340883597</v>
       </c>
       <c r="G20" s="53">
-        <f>'CubicTest  (2)'!C15 *'CubicTest  (2)'!G13* (ComponentsData!$B$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
-        <v>7.9187369260346188</v>
+        <f>'CubicTest  (2)'!C15 *'CubicTest  (2)'!G13* (ComponentsData!$C$1*ComponentsData!$D$6)^2 / (ComponentsData!$D$5)</f>
+        <v>815414.05587326142</v>
       </c>
       <c r="H20" s="7">
-        <f>'CubicTest  (2)'!C15 *'CubicTest  (2)'!C13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>12.148142441357232</v>
+        <f>'CubicTest  (2)'!C15 *'CubicTest  (2)'!C13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1230924.0955962627</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J20" s="51"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4">
-        <f>'CubicTest  (2)'!B15 *'CubicTest  (2)'!B14* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>7.0261529270041061</v>
+        <f>'CubicTest  (2)'!B15 *'CubicTest  (2)'!B14* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>713949.16954225395</v>
       </c>
       <c r="C21" s="4">
-        <f>'CubicTest  (2)'!C15 *'CubicTest  (2)'!C14* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>7.7360938220322462</v>
+        <f>'CubicTest  (2)'!C15 *'CubicTest  (2)'!C14* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>786046.07422031171</v>
       </c>
       <c r="D21" s="49">
         <v>7.0158820263030197</v>
@@ -7447,20 +7519,20 @@
         <v>12.5194340883597</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="4">
-        <f>'CubicTest  (2)'!B16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.5589640608263697E-2</v>
+        <f>'CubicTest  (2)'!B16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.5669098419645594E-2</v>
       </c>
       <c r="C22" s="4">
-        <f>'CubicTest  (2)'!C16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.0935834797457396E-2</v>
+        <f>'CubicTest  (2)'!C16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.1007181528791514E-2</v>
       </c>
       <c r="D22" s="49">
         <v>4.5589640608263697E-2</v>
@@ -7470,7 +7542,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="92" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -7483,25 +7555,25 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="89"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="7"/>
-      <c r="G24" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="90"/>
+      <c r="G24" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="96"/>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="49">
-        <f>ComponentsData!$B$1*'CubicTest  (2)'!$B$8/('CubicTest  (2)'!$C$23-'CubicTest  (2)'!B22)-B20/($C$23^2 +B22*$C$23)</f>
-        <v>20.856392209890771</v>
+        <f>ComponentsData!$C$1*'CubicTest  (2)'!$B$8/('CubicTest  (2)'!$C$23-'CubicTest  (2)'!B22)-B20/($C$23^2 +B22*$C$23)</f>
+        <v>2113431.082514164</v>
       </c>
       <c r="C25" s="49">
-        <f>ComponentsData!$B$1*'CubicTest  (2)'!$B$8/('CubicTest  (2)'!$C$23-'CubicTest  (2)'!C22)-C20/($C$23^2 +2*C22*$C$23-C22^2)</f>
-        <v>20.635117703578111</v>
+        <f>ComponentsData!$C$1*'CubicTest  (2)'!$B$8/('CubicTest  (2)'!$C$23-'CubicTest  (2)'!C22)-C20/($C$23^2 +2*C22*$C$23-C22^2)</f>
+        <v>2090977.3611918697</v>
       </c>
       <c r="D25" s="49">
         <v>20.643830517734798</v>
@@ -7509,14 +7581,14 @@
       <c r="E25" s="7">
         <v>20.416487251292999</v>
       </c>
-      <c r="G25" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="91"/>
+      <c r="G25" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="88" t="s">
-        <v>47</v>
+      <c r="A26" s="92" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -7527,53 +7599,53 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="G26" s="47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I26" s="51"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="89"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="49"/>
       <c r="C27" s="33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="49">
-        <f>B20*$C$26/((ComponentsData!$B$1*'CubicTest  (2)'!$B$8)^2)</f>
-        <v>0.14192002409362448</v>
+        <f>B20*$C$26/((ComponentsData!$C$1*'CubicTest  (2)'!$B$8)^2)</f>
+        <v>1.4006527797654157E-6</v>
       </c>
       <c r="E27" s="7">
-        <f>C20*$C$26/((ComponentsData!$B$1*'CubicTest  (2)'!$B$8)^2)</f>
-        <v>0.14835236239806404</v>
+        <f>C20*$C$26/((ComponentsData!$C$1*'CubicTest  (2)'!$B$8)^2)</f>
+        <v>1.4642308041312088E-6</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="53">
-        <f>'CubicTest  (2)'!C16*(ComponentsData!$B$1*ComponentsData!$C$6)/(ComponentsData!$C$5)</f>
-        <v>1.8676504821640585E-2</v>
+        <f>'CubicTest  (2)'!C16*(ComponentsData!$C$1*ComponentsData!$D$6)/(ComponentsData!$D$5)</f>
+        <v>1.8970414589228459E-2</v>
       </c>
       <c r="H27" s="53">
-        <f>'CubicTest  (2)'!C16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.0935834797457396E-2</v>
+        <f>'CubicTest  (2)'!C16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.1007181528791514E-2</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1">
-      <c r="A28" s="89"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="49">
-        <f>B22*$C$26/((ComponentsData!$B$1*'CubicTest  (2)'!$B$8))</f>
-        <v>1.9456258147778602E-2</v>
+        <f>B22*$C$26/((ComponentsData!$C$1*'CubicTest  (2)'!$B$8))</f>
+        <v>1.9235896287403991E-7</v>
       </c>
       <c r="E28" s="7">
-        <f>C22*$C$26/((ComponentsData!$B$1*'CubicTest  (2)'!$B$8))</f>
-        <v>1.7470156787543992E-2</v>
+        <f>C22*$C$26/((ComponentsData!$C$1*'CubicTest  (2)'!$B$8))</f>
+        <v>1.7272289539818412E-7</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="54">
@@ -7583,14 +7655,14 @@
         <v>4.0905903648446297E-2</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="89"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="49">
         <f>1-(B6-1)*D28</f>
@@ -7598,113 +7670,113 @@
       </c>
       <c r="E29" s="7">
         <f>1-(C6-1)*E28</f>
-        <v>0.98252984321245596</v>
+        <v>0.99999982727710457</v>
       </c>
       <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="89"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D30" s="49">
         <f>D27-B6*D28-B6*D28^2+B7*D28^2</f>
-        <v>0.12208521996473287</v>
+        <v>1.2082937798894053E-6</v>
       </c>
       <c r="E30" s="7">
         <f>E27-C6*E28-C6*E28^2+C7*E28^2</f>
-        <v>0.11249642968843196</v>
+        <v>1.1187849238352448E-6</v>
       </c>
       <c r="F30" s="49"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="89"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="49">
         <f>D27*D28+B7*D28^2+B7*D28^3</f>
-        <v>2.7612326251045169E-3</v>
+        <v>2.6942811606231638E-13</v>
       </c>
       <c r="E31" s="7">
         <f>E27*E28+C7*E28^2+C7*E28^3</f>
-        <v>2.2812006494359683E-3</v>
+        <v>2.2307298027314529E-13</v>
       </c>
       <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="89"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" s="49">
         <f>3*D30-D29^2</f>
-        <v>-0.63374434010580138</v>
+        <v>-0.99999637511866035</v>
       </c>
       <c r="E32" s="7">
         <f>3*E30-E29^2</f>
-        <v>-0.62787560373779738</v>
+        <v>-0.99999629819946745</v>
       </c>
       <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="89"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" s="49">
         <f>-D29^3+4.5*D29*D30-13.5*D31</f>
-        <v>-0.48789315059761307</v>
+        <v>-0.99999456268162779</v>
       </c>
       <c r="E33" s="7">
         <f>-E29^3+4.5*E29*E30-13.5*E31</f>
-        <v>-0.48190607812920555</v>
+        <v>-0.99999444730312703</v>
       </c>
       <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="89"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" s="49">
         <f>D32^3+D33^2</f>
-        <v>-1.6492209816415693E-2</v>
+        <v>-2.5802693315313263E-12</v>
       </c>
       <c r="E34" s="7">
         <f>E32^3+E33^2</f>
-        <v>-1.529253332761174E-2</v>
+        <v>-2.425837308805967E-12</v>
       </c>
       <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="89"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="49">
         <f>ACOS(-D33/SQRT(-D32^3))</f>
-        <v>0.25737942751829013</v>
+        <v>1.6063562349177829E-6</v>
       </c>
       <c r="E35" s="7">
         <f>ACOS(-E33/SQRT(-E32^3))</f>
-        <v>0.2511921707491136</v>
+        <v>1.5575099705511519E-6</v>
       </c>
       <c r="F35" s="49"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="89"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="7"/>
@@ -7712,15 +7784,15 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B37" s="42">
         <f>(1/3)*(D29+2*SQRT(-D32)*COS((D35/3)+120*(PI()/180)))</f>
-        <v>2.9565455554188914E-2</v>
+        <v>2.9500464415743721E-7</v>
       </c>
       <c r="C37" s="42">
         <f>(1/3)*(E29+2*SQRT(-E32)*COS((E35/3)+120*(PI()/180)))</f>
-        <v>2.6045868240368621E-2</v>
+        <v>2.5965069420467535E-7</v>
       </c>
       <c r="D37" s="49">
         <v>4.6362135571463098E-2</v>
@@ -7732,15 +7804,15 @@
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1">
       <c r="A38" s="46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" s="43">
         <f>(1/3)*(D29+2*SQRT(-D32)*COS((D35/3)))</f>
-        <v>0.86210176472792566</v>
+        <v>0.99999879170502948</v>
       </c>
       <c r="C38" s="43">
         <f>(1/3)*(E29+2*SQRT(-E32)*COS((E35/3)))</f>
-        <v>0.85391661331578494</v>
+        <v>0.99999870849095873</v>
       </c>
       <c r="D38" s="11">
         <v>0.73804763897418502</v>
@@ -7751,16 +7823,16 @@
       <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="4">
-        <f>ComponentsData!$B$1*'CubicTest  (2)'!$B$8*'CubicTest  (2)'!B37/'CubicTest  (2)'!$C$26</f>
-        <v>6.9277375068595048E-2</v>
+        <f>ComponentsData!$C$1*'CubicTest  (2)'!$B$8*'CubicTest  (2)'!B37/'CubicTest  (2)'!$C$26</f>
+        <v>7.0038827029342138E-2</v>
       </c>
       <c r="C39" s="4">
-        <f>ComponentsData!$B$1*'CubicTest  (2)'!$B$8*'CubicTest  (2)'!C37/'CubicTest  (2)'!$C$26</f>
-        <v>6.1030325738362375E-2</v>
+        <f>ComponentsData!$C$1*'CubicTest  (2)'!$B$8*'CubicTest  (2)'!C37/'CubicTest  (2)'!$C$26</f>
+        <v>6.1645233116210243E-2</v>
       </c>
       <c r="D39" s="4">
         <v>6.7459495809048198E-2</v>
@@ -7772,12 +7844,12 @@
     <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" s="94"/>
       <c r="B40" s="11">
-        <f>ComponentsData!$B$1*'CubicTest  (2)'!$B$8*'CubicTest  (2)'!B38/'CubicTest  (2)'!$C$26</f>
-        <v>2.0200651802198362</v>
+        <f>ComponentsData!$C$1*'CubicTest  (2)'!$B$8*'CubicTest  (2)'!B38/'CubicTest  (2)'!$C$26</f>
+        <v>237415.72815511891</v>
       </c>
       <c r="C40" s="11">
-        <f>ComponentsData!$B$1*'CubicTest  (2)'!$B$8*'CubicTest  (2)'!C38/'CubicTest  (2)'!$C$26</f>
-        <v>2.0008858442771578</v>
+        <f>ComponentsData!$C$1*'CubicTest  (2)'!$B$8*'CubicTest  (2)'!C38/'CubicTest  (2)'!$C$26</f>
+        <v>237415.70839876583</v>
       </c>
       <c r="D40" s="11">
         <v>1.07390052236728</v>
@@ -7787,12 +7859,12 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="88" t="s">
-        <v>59</v>
+      <c r="A41" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D41" s="4">
         <f>SQRT(B6^2-4*B7)</f>
@@ -7804,38 +7876,38 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="89"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="49"/>
       <c r="C42" s="95" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D42" s="49">
         <f>(1/D41) *LN((2*B39+(2+D41)*B22)/(2*B39+(2-D41)*B22))</f>
-        <v>0.40222721233092928</v>
+        <v>0.39993993525663385</v>
       </c>
       <c r="E42" s="7">
         <f>(1/E41) *LN((2*C39+(2+E41)*C22)/(2*C39+(2-E41)*C22))</f>
-        <v>0.45552300130609613</v>
+        <v>0.45259497109857905</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="89"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="49"/>
       <c r="C43" s="95"/>
       <c r="D43" s="49">
         <f>(1/D41) *LN((2*B40+(2+D41)*B22)/(2*B40+(2-D41)*B22))</f>
-        <v>2.2071205139292744E-2</v>
+        <v>1.9235915830835168E-7</v>
       </c>
       <c r="E43" s="7">
         <f>(1/E41) *LN((2*C40+(2+E41)*C22)/(2*C40+(2-E41)*C22))</f>
-        <v>2.0054057580758875E-2</v>
+        <v>1.7272308859280012E-7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="89"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="49"/>
       <c r="C44" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D44" s="49">
         <f>B22/B22</f>
@@ -7847,10 +7919,10 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="89"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="49"/>
       <c r="C45" s="95" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D45" s="49">
         <f>2*B20/B20</f>
@@ -7862,7 +7934,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="89"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="49"/>
       <c r="C46" s="95"/>
       <c r="D46" s="49">
@@ -7875,14 +7947,14 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="89"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="49">
-        <f>EXP(-LN((B39-B$22)/B39)+(B37-1)*D$44+(B20/($B$8*B$22*ComponentsData!$B$1))*('CubicTest  (2)'!D$44-'CubicTest  (2)'!D45)*'CubicTest  (2)'!D42-LN('CubicTest  (2)'!B37))</f>
-        <v>1.9935244812975321</v>
+        <f>EXP(-LN((B39-B$22)/B39)+(B37-1)*D$44+(B20/($B$8*B$22*ComponentsData!$C$1))*('CubicTest  (2)'!D$44-'CubicTest  (2)'!D45)*'CubicTest  (2)'!D42-LN('CubicTest  (2)'!B37))</f>
+        <v>194821.52318571982</v>
       </c>
       <c r="C47" s="49">
-        <f>EXP(-LN((C39-C$22)/C39)+(C37-1)*E$44+(C20/($B$8*C$22*ComponentsData!$B$1))*('CubicTest  (2)'!E$44-'CubicTest  (2)'!E45)*'CubicTest  (2)'!E42-LN('CubicTest  (2)'!C37))</f>
-        <v>0.9200526432003836</v>
+        <f>EXP(-LN((C39-C$22)/C39)+(C37-1)*E$44+(C20/($B$8*C$22*ComponentsData!$C$1))*('CubicTest  (2)'!E$44-'CubicTest  (2)'!E45)*'CubicTest  (2)'!E42-LN('CubicTest  (2)'!C37))</f>
+        <v>91252.577947160171</v>
       </c>
       <c r="D47" s="49">
         <v>1.1816253007300679</v>
@@ -7894,12 +7966,12 @@
     <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="94"/>
       <c r="B48" s="11">
-        <f>EXP(-LN((B40-B$22)/B40)+(B38-1)*D$44+(B20/($B$8*B$22*ComponentsData!$B$1))*('CubicTest  (2)'!D$44-'CubicTest  (2)'!D46)*'CubicTest  (2)'!D43-LN('CubicTest  (2)'!B38))</f>
-        <v>0.8801318299752473</v>
+        <f>EXP(-LN((B40-B$22)/B40)+(B38-1)*D$44+(B20/($B$8*B$22*ComponentsData!$C$1))*('CubicTest  (2)'!D$44-'CubicTest  (2)'!D46)*'CubicTest  (2)'!D43-LN('CubicTest  (2)'!B38))</f>
+        <v>0.99999879170647088</v>
       </c>
       <c r="C48" s="11">
-        <f>EXP(-LN((C40-C$22)/C40)+(C38-1)*E$44+(C20/($B$8*C$22*ComponentsData!$B$1))*('CubicTest  (2)'!E$44-'CubicTest  (2)'!E46)*'CubicTest  (2)'!E43-LN('CubicTest  (2)'!C38))</f>
-        <v>0.87128613528380794</v>
+        <f>EXP(-LN((C40-C$22)/C40)+(C38-1)*E$44+(C20/($B$8*C$22*ComponentsData!$C$1))*('CubicTest  (2)'!E$44-'CubicTest  (2)'!E46)*'CubicTest  (2)'!E43-LN('CubicTest  (2)'!C38))</f>
+        <v>0.9999987084923595</v>
       </c>
       <c r="D48" s="11">
         <v>0.80159377432915602</v>
@@ -7916,11 +7988,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
@@ -7929,6 +7996,11 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7958,15 +8030,15 @@
     <row r="1" spans="1:12">
       <c r="A1" s="35"/>
       <c r="B1" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="39">
         <v>0.48508000000000001</v>
@@ -7977,7 +8049,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="39">
         <v>1.5517099999999999</v>
@@ -7988,7 +8060,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="39">
         <v>-0.15612999999999999</v>
@@ -7999,7 +8071,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="39">
         <v>0</v>
@@ -8010,7 +8082,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="39">
         <v>1</v>
@@ -8032,61 +8104,61 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="39">
         <v>425.87</v>
       </c>
       <c r="C8" s="39">
-        <f>B8/ComponentsData!$B$6</f>
-        <v>0.83080374561061254</v>
+        <f>B8/ComponentsData!$C$6</f>
+        <v>0.83096585365853659</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="39">
         <v>604.23</v>
       </c>
       <c r="C9" s="39">
-        <f>B9/ComponentsData!$B$6</f>
-        <v>1.1787553648068669</v>
+        <f>B9/ComponentsData!$C$6</f>
+        <v>1.1789853658536587</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="39">
-        <f>B8/ComponentsData!C6</f>
-        <v>0.65809033733562039</v>
+        <f>B8/ComponentsData!D6</f>
+        <v>0.65812491500488335</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="39">
-        <f>B2 + B3*ComponentsData!$B$4+B4*ComponentsData!$B$4^2+B5*ComponentsData!$B$4^3</f>
-        <v>1.32157488208</v>
+        <f>B2 + B3*ComponentsData!$C$4+B4*ComponentsData!$C$4^2+B5*ComponentsData!$C$4^3</f>
+        <v>1.313098303188811</v>
       </c>
       <c r="C11" s="39">
-        <f>C2 + C3*ComponentsData!$B$4+C4*ComponentsData!$B$4^2+C5*ComponentsData!$B$4^3</f>
-        <v>1.1786359793688193</v>
+        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
+        <v>1.1705307196840293</v>
       </c>
       <c r="D11" s="39">
         <v>1.32157488208</v>
@@ -8095,24 +8167,24 @@
         <v>1.1786359793688199</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="39">
-        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
-        <v>0.8718820433972736</v>
+        <f>C2 + C3*ComponentsData!$D$4+C4*ComponentsData!$D$4^2+C5*ComponentsData!$D$4^3</f>
+        <v>0.87306910063967647</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="39">
-        <f xml:space="preserve"> 1 + 0.5 *B11+0.3 * ComponentsData!$B$7</f>
-        <v>1.77892744104</v>
+        <f xml:space="preserve"> 1 + 0.5 *B11+0.3 * ComponentsData!$C$7</f>
+        <v>1.7746861515944055</v>
       </c>
       <c r="C12" s="39">
-        <f xml:space="preserve"> 1 + 0.5 *C11+0.3 * ComponentsData!$B$7</f>
-        <v>1.7074579896844095</v>
+        <f xml:space="preserve"> 1 + 0.5 *C11+0.3 * ComponentsData!$C$7</f>
+        <v>1.7034023598420145</v>
       </c>
       <c r="D12" s="39">
         <v>1.77892744104</v>
@@ -8121,24 +8193,24 @@
         <v>1.70745798968441</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="39">
-        <f xml:space="preserve"> 1 + 0.5 *G11+0.3 * ComponentsData!$C$7</f>
-        <v>1.4159760216986368</v>
+        <f xml:space="preserve"> 1 + 0.5 *G11+0.3 * ComponentsData!$D$7</f>
+        <v>1.4135245503198381</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="39">
-        <f>POWER(1+ B11*(1-SQRT($C$8)) - ComponentsData!$B$7*(1-$C$8)*(0.7 -$C$8),2)</f>
-        <v>1.2671901956328315</v>
+        <f>POWER(1+ B11*(1-SQRT($C$8)) - ComponentsData!$C$7*(1-$C$8)*(0.7 -$C$8),2)</f>
+        <v>1.2652438224543587</v>
       </c>
       <c r="C13" s="39">
-        <f>POWER(1+ C11*(1-SQRT($C$8)) - ComponentsData!$B$7*(1-$C$8)*(0.7 -$C$8),2)</f>
-        <v>1.2388649417067934</v>
+        <f>POWER(1+ C11*(1-SQRT($C$8)) - ComponentsData!$C$7*(1-$C$8)*(0.7 -$C$8),2)</f>
+        <v>1.2370417632774973</v>
       </c>
       <c r="D13" s="39">
         <v>1.26719019563283</v>
@@ -8147,24 +8219,24 @@
         <v>1.2388649417067901</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="39">
-        <f>POWER(1+ G11*(1-SQRT($G$10)) - ComponentsData!$C$7*(1-$G$10)*(0.7 -$G$10),2)</f>
-        <v>1.3584853993860753</v>
+        <f>POWER(1+ G11*(1-SQRT($G$10)) - ComponentsData!$D$7*(1-$G$10)*(0.7 -$G$10),2)</f>
+        <v>1.359301171367906</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="39">
         <f>EXP((2*(B12-1)/B12)*(1-POWER($C$9,B12)))</f>
-        <v>0.74258381399471496</v>
+        <v>0.7435676271501791</v>
       </c>
       <c r="C14" s="39">
         <f>EXP((2*(C12-1)/C12)*(1-POWER($C$9,C12)))</f>
-        <v>0.76440879061241385</v>
+        <v>0.76538024364473822</v>
       </c>
       <c r="D14" s="39">
         <v>0.74258381399471496</v>
@@ -8175,7 +8247,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="39">
         <v>0.42748023000000002</v>
@@ -8186,7 +8258,7 @@
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="23">
         <v>8.6640350000000005E-2</v>
@@ -8195,37 +8267,37 @@
         <v>7.7796074000000007E-2</v>
       </c>
       <c r="K16" s="55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="G17" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="90"/>
+      <c r="G17" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="96"/>
       <c r="K17" s="45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="B18" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="93"/>
-      <c r="G18" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="91"/>
+      <c r="B18" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="G18" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="97"/>
       <c r="J18" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K18" s="39">
         <v>0.4</v>
@@ -8236,46 +8308,46 @@
     </row>
     <row r="19" spans="1:13" ht="29.4" thickBot="1">
       <c r="A19" s="40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
       <c r="K19" s="45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4">
-        <f>VDWMixingRuleTest!B15 *VDWMixingRuleTest!B13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>11.989854793926185</v>
+        <f>VDWMixingRuleTest!B15 *VDWMixingRuleTest!B13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1214845.4872515749</v>
       </c>
       <c r="C20" s="4">
-        <f>VDWMixingRuleTest!C15 *VDWMixingRuleTest!C13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>12.537761914265747</v>
+        <f>VDWMixingRuleTest!C15 *VDWMixingRuleTest!C13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1270442.8024434203</v>
       </c>
       <c r="D20" s="6">
         <v>11.972327904134801</v>
@@ -8284,42 +8356,42 @@
         <v>12.5194340883597</v>
       </c>
       <c r="G20" s="53">
-        <f>VDWMixingRuleTest!C15 *VDWMixingRuleTest!G13* (ComponentsData!$B$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
-        <v>7.9187369260346188</v>
+        <f>VDWMixingRuleTest!C15 *VDWMixingRuleTest!G13* (ComponentsData!$C$1*ComponentsData!$D$6)^2 / (ComponentsData!$D$5)</f>
+        <v>815414.05587326142</v>
       </c>
       <c r="H20" s="7">
-        <f>VDWMixingRuleTest!C15 *VDWMixingRuleTest!C13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>12.537761914265747</v>
+        <f>VDWMixingRuleTest!C15 *VDWMixingRuleTest!C13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1270442.8024434203</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K20" s="39">
-        <f>K18^2*G20+L18^2*H20+2*K18*L18*SQRT(G20*H20)*(1-ComponentsData!B9)</f>
-        <v>10.935458234892202</v>
+        <f>K18^2*G20+L18^2*H20+2*K18*L18*SQRT(G20*H20)*(1-ComponentsData!C9)</f>
+        <v>1114383.4838565087</v>
       </c>
       <c r="L20" s="39">
         <f>K18*G27+L18*H27</f>
-        <v>3.2032102807130668E-2</v>
+        <v>3.2192474752966292E-2</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4">
-        <f>VDWMixingRuleTest!B15 *VDWMixingRuleTest!B14* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>7.0261529270041061</v>
+        <f>VDWMixingRuleTest!B15 *VDWMixingRuleTest!B14* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>713949.16954225395</v>
       </c>
       <c r="C21" s="4">
-        <f>VDWMixingRuleTest!C15 *VDWMixingRuleTest!C14* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>7.7360938220322462</v>
+        <f>VDWMixingRuleTest!C15 *VDWMixingRuleTest!C14* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>786046.07422031171</v>
       </c>
       <c r="D21" s="6">
         <v>7.0158820263030197</v>
@@ -8334,7 +8406,7 @@
         <v>12.5194340883597</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K21" s="44">
         <v>10.9204307481091</v>
@@ -8343,20 +8415,20 @@
         <v>3.2008681820432802E-2</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="4">
-        <f>VDWMixingRuleTest!B16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.5589640608263697E-2</v>
+        <f>VDWMixingRuleTest!B16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.5669098419645594E-2</v>
       </c>
       <c r="C22" s="4">
-        <f>VDWMixingRuleTest!C16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.0935834797457396E-2</v>
+        <f>VDWMixingRuleTest!C16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.1007181528791514E-2</v>
       </c>
       <c r="D22" s="6">
         <v>4.5556306725294003E-2</v>
@@ -8365,22 +8437,22 @@
         <v>4.0905903648446297E-2</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K22" s="39">
-        <f>2*(K18*G20+L18*SQRT(G20*H20)*(1-ComponentsData!B9))/K20</f>
-        <v>1.7577822732176223</v>
+        <f>2*(K18*G20+L18*SQRT(G20*H20)*(1-ComponentsData!C9))/K20</f>
+        <v>1.766650204630094</v>
       </c>
       <c r="L22" s="39">
-        <f>2*(K18*SQRT(H20*G20)*(1-ComponentsData!B9)+L18*H20)/K20</f>
-        <v>2.1614784845215853</v>
+        <f>2*(K18*SQRT(H20*G20)*(1-ComponentsData!C9)+L18*H20)/K20</f>
+        <v>2.1555665302466043</v>
       </c>
       <c r="M22" s="44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="92" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -8398,29 +8470,29 @@
         <v>2.1613868819617301</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="89"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
-      <c r="G24" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="90"/>
+      <c r="G24" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="96"/>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="6">
-        <f>ComponentsData!$B$1*VDWMixingRuleTest!$B$8/(VDWMixingRuleTest!$C$23-VDWMixingRuleTest!B22)-B20/($C$23^2 +B22*$C$23)</f>
-        <v>20.655008831181359</v>
+        <f>ComponentsData!$C$1*VDWMixingRuleTest!$B$8/(VDWMixingRuleTest!$C$23-VDWMixingRuleTest!B22)-B20/($C$23^2 +B22*$C$23)</f>
+        <v>2093006.8122486742</v>
       </c>
       <c r="C25" s="6">
-        <f>ComponentsData!$B$1*VDWMixingRuleTest!$B$8/(VDWMixingRuleTest!$C$23-VDWMixingRuleTest!C22)-C20/($C$23^2 +2*C22*$C$23-C22^2)</f>
-        <v>20.427443990494176</v>
+        <f>ComponentsData!$C$1*VDWMixingRuleTest!$B$8/(VDWMixingRuleTest!$C$23-VDWMixingRuleTest!C22)-C20/($C$23^2 +2*C22*$C$23-C22^2)</f>
+        <v>2069915.292647958</v>
       </c>
       <c r="D25" s="6">
         <v>20.643830517734798</v>
@@ -8428,14 +8500,14 @@
       <c r="E25" s="7">
         <v>20.416487251292999</v>
       </c>
-      <c r="G25" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="91"/>
+      <c r="G25" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="88" t="s">
-        <v>47</v>
+      <c r="A26" s="92" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -8446,53 +8518,53 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="G26" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I26" s="51"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="89"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="6"/>
       <c r="C27" s="33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6">
-        <f>B20*$C$26/((ComponentsData!$B$1*VDWMixingRuleTest!$B$8)^2)</f>
-        <v>0.23561777176634383</v>
+        <f>B20*$C$26/((ComponentsData!$C$1*VDWMixingRuleTest!$B$8)^2)</f>
+        <v>2.3254598243920631E-6</v>
       </c>
       <c r="E27" s="7">
-        <f>C20*$C$26/((ComponentsData!$B$1*VDWMixingRuleTest!$B$8)^2)</f>
-        <v>0.24638492925474975</v>
+        <f>C20*$C$26/((ComponentsData!$C$1*VDWMixingRuleTest!$B$8)^2)</f>
+        <v>2.4318843237867957E-6</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="53">
-        <f>VDWMixingRuleTest!C16*(ComponentsData!$B$1*ComponentsData!$C$6)/(ComponentsData!$C$5)</f>
-        <v>1.8676504821640585E-2</v>
+        <f>VDWMixingRuleTest!C16*(ComponentsData!$C$1*ComponentsData!$D$6)/(ComponentsData!$D$5)</f>
+        <v>1.8970414589228459E-2</v>
       </c>
       <c r="H27" s="53">
-        <f>VDWMixingRuleTest!C16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.0935834797457396E-2</v>
+        <f>VDWMixingRuleTest!C16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.1007181528791514E-2</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1">
-      <c r="A28" s="89"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="6">
-        <f>B22*$C$26/((ComponentsData!$B$1*VDWMixingRuleTest!$B$8))</f>
-        <v>3.1308975010897494E-2</v>
+        <f>B22*$C$26/((ComponentsData!$C$1*VDWMixingRuleTest!$B$8))</f>
+        <v>3.0954369108394541E-7</v>
       </c>
       <c r="E28" s="7">
-        <f>C22*$C$26/((ComponentsData!$B$1*VDWMixingRuleTest!$B$8))</f>
-        <v>2.8112944336119751E-2</v>
+        <f>C22*$C$26/((ComponentsData!$C$1*VDWMixingRuleTest!$B$8))</f>
+        <v>2.7794536723131612E-7</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="54">
@@ -8502,14 +8574,14 @@
         <v>4.0905903648446297E-2</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="89"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="6">
         <f>1-(B6-1)*D28</f>
@@ -8517,113 +8589,113 @@
       </c>
       <c r="E29" s="7">
         <f>1-(C6-1)*E28</f>
-        <v>0.97188705566388023</v>
+        <v>0.99999972205463272</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="89"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D30" s="6">
         <f>D27-B6*D28-B6*D28^2+B7*D28^2</f>
-        <v>0.20332854483921334</v>
+        <v>2.015916037490821E-6</v>
       </c>
       <c r="E30" s="7">
         <f>E27-C6*E28-C6*E28^2+C7*E28^2</f>
-        <v>0.18778802766477296</v>
+        <v>1.8759933575632821E-6</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="89"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="6">
         <f>D27*D28+B7*D28^2+B7*D28^3</f>
-        <v>7.3769509283558082E-3</v>
+        <v>7.1983141750974272E-13</v>
       </c>
       <c r="E31" s="7">
         <f>E27*E28+C7*E28^2+C7*E28^3</f>
-        <v>6.1140494440929585E-3</v>
+        <v>5.986773328013628E-13</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="89"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" s="6">
         <f>3*D30-D29^2</f>
-        <v>-0.39001436548236001</v>
+        <v>-0.99999395225188747</v>
       </c>
       <c r="E32" s="7">
         <f>3*E30-E29^2</f>
-        <v>-0.38120036597268736</v>
+        <v>-0.99999381612927007</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="89"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" s="6">
         <f>-D29^3+4.5*D29*D30-13.5*D31</f>
-        <v>-0.18461038575634342</v>
+        <v>-0.99999092838754899</v>
       </c>
       <c r="E33" s="7">
         <f>-E29^3+4.5*E29*E30-13.5*E31</f>
-        <v>-0.17926023885437831</v>
+        <v>-0.99999072420444945</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="89"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" s="6">
         <f>D32^3+D33^2</f>
-        <v>-2.5244560681947407E-2</v>
+        <v>-7.9958262233503774E-12</v>
       </c>
       <c r="E34" s="7">
         <f>E32^3+E33^2</f>
-        <v>-2.3259409636274847E-2</v>
+        <v>-7.5914829977818954E-12</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="89"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="6">
         <f>ACOS(-D33/SQRT(-D32^3))</f>
-        <v>0.71064590926441984</v>
+        <v>2.827689201900796E-6</v>
       </c>
       <c r="E35" s="7">
         <f>ACOS(-E33/SQRT(-E32^3))</f>
-        <v>0.70494456200473299</v>
+        <v>2.7552645966988365E-6</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="89"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -8631,15 +8703,15 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B37" s="42">
         <f>(1/3)*(D29+2*SQRT(-D32)*COS((D35/3)+120*(PI()/180)))</f>
-        <v>4.6362135571462883E-2</v>
+        <v>4.6377229597401498E-7</v>
       </c>
       <c r="C37" s="42">
         <f>(1/3)*(E29+2*SQRT(-E32)*COS((E35/3)+120*(PI()/180)))</f>
-        <v>4.0819590031520837E-2</v>
+        <v>4.0774912065296337E-7</v>
       </c>
       <c r="D37" s="6">
         <v>4.6362135571463098E-2</v>
@@ -8651,15 +8723,15 @@
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1">
       <c r="A38" s="34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" s="43">
         <f>(1/3)*(D29+2*SQRT(-D32)*COS((D35/3)))</f>
-        <v>0.73804763897418424</v>
+        <v>0.99999798408061835</v>
       </c>
       <c r="C38" s="43">
         <f>(1/3)*(E29+2*SQRT(-E32)*COS((E35/3)))</f>
-        <v>0.72426026984667691</v>
+        <v>0.99999784605783293</v>
       </c>
       <c r="D38" s="11">
         <v>0.73804763897418502</v>
@@ -8670,16 +8742,16 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="4">
-        <f>ComponentsData!$B$1*VDWMixingRuleTest!$B$8*VDWMixingRuleTest!B37/VDWMixingRuleTest!$C$26</f>
-        <v>6.750885641573745E-2</v>
+        <f>ComponentsData!$C$1*VDWMixingRuleTest!$B$8*VDWMixingRuleTest!B37/VDWMixingRuleTest!$C$26</f>
+        <v>6.8423499619633524E-2</v>
       </c>
       <c r="C39" s="4">
-        <f>ComponentsData!$B$1*VDWMixingRuleTest!$B$8*VDWMixingRuleTest!C37/VDWMixingRuleTest!$C$26</f>
-        <v>5.9438242186656387E-2</v>
+        <f>ComponentsData!$C$1*VDWMixingRuleTest!$B$8*VDWMixingRuleTest!C37/VDWMixingRuleTest!$C$26</f>
+        <v>6.0158017294476666E-2</v>
       </c>
       <c r="D39" s="4">
         <v>6.7459495809048198E-2</v>
@@ -8691,12 +8763,12 @@
     <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" s="94"/>
       <c r="B40" s="11">
-        <f>ComponentsData!$B$1*VDWMixingRuleTest!$B$8*VDWMixingRuleTest!B38/VDWMixingRuleTest!$C$26</f>
-        <v>1.0746863032373055</v>
+        <f>ComponentsData!$C$1*VDWMixingRuleTest!$B$8*VDWMixingRuleTest!B38/VDWMixingRuleTest!$C$26</f>
+        <v>147536.54385428884</v>
       </c>
       <c r="C40" s="11">
-        <f>ComponentsData!$B$1*VDWMixingRuleTest!$B$8*VDWMixingRuleTest!C38/VDWMixingRuleTest!$C$26</f>
-        <v>1.0546102322947803</v>
+        <f>ComponentsData!$C$1*VDWMixingRuleTest!$B$8*VDWMixingRuleTest!C38/VDWMixingRuleTest!$C$26</f>
+        <v>147536.52349084304</v>
       </c>
       <c r="D40" s="11">
         <v>1.07390052236728</v>
@@ -8706,12 +8778,12 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="88" t="s">
-        <v>59</v>
+      <c r="A41" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D41" s="4">
         <f>SQRT(B6^2-4*B7)</f>
@@ -8723,38 +8795,38 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="89"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="6"/>
       <c r="C42" s="95" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D42" s="6">
         <f>(1/D41) *LN((2*B39+(2+D41)*B22)/(2*B39+(2-D41)*B22))</f>
-        <v>0.40869197018332898</v>
+        <v>0.4057578175600795</v>
       </c>
       <c r="E42" s="7">
         <f>(1/E41) *LN((2*C39+(2+E41)*C22)/(2*C39+(2-E41)*C22))</f>
-        <v>0.46499192028936837</v>
+        <v>0.46128087648384003</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="89"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="6"/>
       <c r="C43" s="95"/>
       <c r="D43" s="6">
         <f>(1/D41) *LN((2*B40+(2+D41)*B22)/(2*B40+(2-D41)*B22))</f>
-        <v>4.0700627475787107E-2</v>
+        <v>3.0954421919868096E-7</v>
       </c>
       <c r="E43" s="7">
         <f>(1/E41) *LN((2*C40+(2+E41)*C22)/(2*C40+(2-E41)*C22))</f>
-        <v>3.7400528309793235E-2</v>
+        <v>2.7794588859982758E-7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="89"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D44" s="6">
         <f>B22/B22</f>
@@ -8766,10 +8838,10 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="89"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="6"/>
       <c r="C45" s="95" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D45" s="6">
         <f>2*B20/B20</f>
@@ -8781,7 +8853,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="89"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="6"/>
       <c r="C46" s="95"/>
       <c r="D46" s="6">
@@ -8794,14 +8866,14 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="89"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="6">
-        <f>EXP(-LN((B39-B$22)/B39)+(B37-1)*D$44+(B20/($B$8*B$22*ComponentsData!$B$1))*(VDWMixingRuleTest!D$44-VDWMixingRuleTest!D45)*VDWMixingRuleTest!D42-LN(VDWMixingRuleTest!B37))</f>
-        <v>1.1816253007300674</v>
+        <f>EXP(-LN((B39-B$22)/B39)+(B37-1)*D$44+(B20/($B$8*B$22*ComponentsData!$C$1))*(VDWMixingRuleTest!D$44-VDWMixingRuleTest!D45)*VDWMixingRuleTest!D42-LN(VDWMixingRuleTest!B37))</f>
+        <v>113159.98688655955</v>
       </c>
       <c r="C47" s="6">
-        <f>EXP(-LN((C39-C$22)/C39)+(C37-1)*E$44+(C20/($B$8*C$22*ComponentsData!$B$1))*(VDWMixingRuleTest!E$44-VDWMixingRuleTest!E45)*VDWMixingRuleTest!E42-LN(VDWMixingRuleTest!C37))</f>
-        <v>0.51232786991648427</v>
+        <f>EXP(-LN((C39-C$22)/C39)+(C37-1)*E$44+(C20/($B$8*C$22*ComponentsData!$C$1))*(VDWMixingRuleTest!E$44-VDWMixingRuleTest!E45)*VDWMixingRuleTest!E42-LN(VDWMixingRuleTest!C37))</f>
+        <v>50074.305062294865</v>
       </c>
       <c r="D47" s="6">
         <v>1.1816253007300679</v>
@@ -8813,12 +8885,12 @@
     <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="94"/>
       <c r="B48" s="11">
-        <f>EXP(-LN((B40-B$22)/B40)+(B38-1)*D$44+(B20/($B$8*B$22*ComponentsData!$B$1))*(VDWMixingRuleTest!D$44-VDWMixingRuleTest!D46)*VDWMixingRuleTest!D43-LN(VDWMixingRuleTest!B38))</f>
-        <v>0.80159377432915557</v>
+        <f>EXP(-LN((B40-B$22)/B40)+(B38-1)*D$44+(B20/($B$8*B$22*ComponentsData!$C$1))*(VDWMixingRuleTest!D$44-VDWMixingRuleTest!D46)*VDWMixingRuleTest!D43-LN(VDWMixingRuleTest!B38))</f>
+        <v>0.99999798408463503</v>
       </c>
       <c r="C48" s="11">
-        <f>EXP(-LN((C40-C$22)/C40)+(C38-1)*E$44+(C20/($B$8*C$22*ComponentsData!$B$1))*(VDWMixingRuleTest!E$44-VDWMixingRuleTest!E46)*VDWMixingRuleTest!E43-LN(VDWMixingRuleTest!C38))</f>
-        <v>0.78558383553474165</v>
+        <f>EXP(-LN((C40-C$22)/C40)+(C38-1)*E$44+(C20/($B$8*C$22*ComponentsData!$C$1))*(VDWMixingRuleTest!E$44-VDWMixingRuleTest!E46)*VDWMixingRuleTest!E43-LN(VDWMixingRuleTest!C38))</f>
+        <v>0.99999784606175857</v>
       </c>
       <c r="D48" s="11">
         <v>0.80159377432915602</v>
@@ -8835,6 +8907,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
@@ -8843,11 +8920,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8858,8 +8930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -8877,15 +8949,15 @@
     <row r="1" spans="1:7">
       <c r="A1" s="29"/>
       <c r="B1" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>0.48508000000000001</v>
@@ -8896,7 +8968,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>1.5517099999999999</v>
@@ -8907,7 +8979,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>-0.15612999999999999</v>
@@ -8918,7 +8990,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -8929,7 +9001,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -8951,61 +9023,61 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>425.87</v>
       </c>
       <c r="C8" s="2">
-        <f>B8/ComponentsData!$B$6</f>
-        <v>0.83080374561061254</v>
+        <f>B8/ComponentsData!$C$6</f>
+        <v>0.83096585365853659</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2">
         <v>604.23</v>
       </c>
       <c r="C9" s="2">
-        <f>B9/ComponentsData!$B$6</f>
-        <v>1.1787553648068669</v>
+        <f>B9/ComponentsData!$C$6</f>
+        <v>1.1789853658536587</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
-        <f>B8/ComponentsData!C6</f>
-        <v>0.65809033733562039</v>
+        <f>B8/ComponentsData!D6</f>
+        <v>0.65812491500488335</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
-        <f>B2 + B3*ComponentsData!$B$4+B4*ComponentsData!$B$4^2+B5*ComponentsData!$B$4^3</f>
-        <v>1.32157488208</v>
+        <f>B2 + B3*ComponentsData!$C$4+B4*ComponentsData!$C$4^2+B5*ComponentsData!$C$4^3</f>
+        <v>1.313098303188811</v>
       </c>
       <c r="C11" s="2">
-        <f>C2 + C3*ComponentsData!$B$4+C4*ComponentsData!$B$4^2+C5*ComponentsData!$B$4^3</f>
-        <v>1.1786359793688193</v>
+        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
+        <v>1.1705307196840293</v>
       </c>
       <c r="D11" s="2">
         <v>1.32157488208</v>
@@ -9014,24 +9086,24 @@
         <v>1.1786359793688199</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="39">
-        <f>C2 + C3*ComponentsData!$C$4+C4*ComponentsData!$C$4^2+C5*ComponentsData!$C$4^3</f>
-        <v>0.8718820433972736</v>
+        <f>C2 + C3*ComponentsData!$D$4+C4*ComponentsData!$D$4^2+C5*ComponentsData!$D$4^3</f>
+        <v>0.87306910063967647</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
-        <f xml:space="preserve"> 1 + 0.5 *B11+0.3 * ComponentsData!$B$7</f>
-        <v>1.77892744104</v>
+        <f xml:space="preserve"> 1 + 0.5 *B11+0.3 * ComponentsData!$C$7</f>
+        <v>1.7746861515944055</v>
       </c>
       <c r="C12" s="2">
-        <f xml:space="preserve"> 1 + 0.5 *C11+0.3 * ComponentsData!$B$7</f>
-        <v>1.7074579896844095</v>
+        <f xml:space="preserve"> 1 + 0.5 *C11+0.3 * ComponentsData!$C$7</f>
+        <v>1.7034023598420145</v>
       </c>
       <c r="D12" s="2">
         <v>1.77892744104</v>
@@ -9040,24 +9112,24 @@
         <v>1.70745798968441</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="39">
-        <f xml:space="preserve"> 1 + 0.5 *G11+0.3 * ComponentsData!$C$7</f>
-        <v>1.4159760216986368</v>
+        <f xml:space="preserve"> 1 + 0.5 *G11+0.3 * ComponentsData!$D$7</f>
+        <v>1.4135245503198381</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2">
-        <f>POWER(1+ B11*(1-SQRT($C$8)) - ComponentsData!$B$7*(1-$C$8)*(0.7 -$C$8),2)</f>
-        <v>1.2671901956328315</v>
+        <f>POWER(1+ B11*(1-SQRT($C$8)) + ComponentsData!$C$7*(1-$C$8)*(0.7 -$C$8),2)</f>
+        <v>1.226324492720664</v>
       </c>
       <c r="C13" s="2">
-        <f>POWER(1+ C11*(1-SQRT($C$8)) - ComponentsData!$B$7*(1-$C$8)*(0.7 -$C$8),2)</f>
-        <v>1.2388649417067934</v>
+        <f>POWER(1+ C11*(1-SQRT($C$8)) + ComponentsData!$C$7*(1-$C$8)*(0.7 -$C$8),2)</f>
+        <v>1.1985620373845787</v>
       </c>
       <c r="D13" s="2">
         <v>1.26719019563283</v>
@@ -9066,24 +9138,24 @@
         <v>1.2388649417067901</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="39">
-        <f>POWER(1+ G11*(1-SQRT($G$10)) - ComponentsData!$C$7*(1-$G$10)*(0.7 -$G$10),2)</f>
-        <v>1.3584853993860753</v>
+        <f>POWER(1+ G11*(1-SQRT($G$10)) - ComponentsData!$D$7*(1-$G$10)*(0.7 -$G$10),2)</f>
+        <v>1.359301171367906</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <f>EXP((2*(B12-1)/B12)*(1-POWER($C$9,B12)))</f>
-        <v>0.74258381399471496</v>
+        <v>0.7435676271501791</v>
       </c>
       <c r="C14" s="2">
         <f>EXP((2*(C12-1)/C12)*(1-POWER($C$9,C12)))</f>
-        <v>0.76440879061241385</v>
+        <v>0.76538024364473822</v>
       </c>
       <c r="D14" s="2">
         <v>0.74258381399471496</v>
@@ -9094,7 +9166,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>0.42748023000000002</v>
@@ -9105,7 +9177,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="23">
         <v>8.6640350000000005E-2</v>
@@ -9115,120 +9187,120 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="G17" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="90"/>
+      <c r="G17" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="96"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="93"/>
-      <c r="G18" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="91"/>
+      <c r="B18" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="G18" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:10" ht="29.4" thickBot="1">
       <c r="A19" s="40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4">
-        <f>'CubicTest '!B15 *'CubicTest '!B13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>11.989854793926185</v>
+        <f>'CubicTest '!B15 *'CubicTest '!B13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1177476.427427107</v>
       </c>
       <c r="C20" s="4">
-        <f>'CubicTest '!C15 *'CubicTest '!C13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>12.537761914265747</v>
+        <f>'CubicTest '!C15 *'CubicTest '!C13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1230924.0955962627</v>
       </c>
       <c r="D20" s="6">
-        <v>11.972327904134801</v>
+        <v>11.6214170108335</v>
       </c>
       <c r="E20" s="6">
-        <v>12.5194340883597</v>
+        <v>12.1481424413572</v>
       </c>
       <c r="G20" s="53">
-        <f>'CubicTest '!C15 *'CubicTest '!G13* (ComponentsData!$B$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
-        <v>7.9187369260346188</v>
+        <f>'CubicTest '!C15 *'CubicTest '!G13* (ComponentsData!$C$1*ComponentsData!$D$6)^2 / (ComponentsData!$D$5)</f>
+        <v>815414.05587326142</v>
       </c>
       <c r="H20" s="7">
-        <f>'CubicTest '!C15 *'CubicTest '!C13* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>12.537761914265747</v>
+        <f>'CubicTest '!C15 *'CubicTest '!C13* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>1230924.0955962627</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J20" s="51"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4">
-        <f>'CubicTest '!B15 *'CubicTest '!B14* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>7.0261529270041061</v>
+        <f>'CubicTest '!B15 *'CubicTest '!B14* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>713949.16954225395</v>
       </c>
       <c r="C21" s="4">
-        <f>'CubicTest '!C15 *'CubicTest '!C14* (ComponentsData!$B$1*ComponentsData!$B$6)^2 / (ComponentsData!$B$5)</f>
-        <v>7.7360938220322462</v>
+        <f>'CubicTest '!C15 *'CubicTest '!C14* (ComponentsData!$C$1*ComponentsData!$C$6)^2 / (ComponentsData!$C$5)</f>
+        <v>786046.07422031171</v>
       </c>
       <c r="D21" s="6">
-        <v>7.0158820263030197</v>
+        <v>7.0261529270041096</v>
       </c>
       <c r="E21" s="6">
-        <v>7.7247851226222197</v>
+        <v>7.7360938220322497</v>
       </c>
       <c r="G21" s="54">
-        <v>7.9091347582367302</v>
+        <v>7.9187369260346196</v>
       </c>
       <c r="H21" s="10">
-        <v>12.5194340883597</v>
+        <v>12.1481424413572</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="4">
-        <f>'CubicTest '!B16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.5589640608263697E-2</v>
+        <f>'CubicTest '!B16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.5669098419645594E-2</v>
       </c>
       <c r="C22" s="4">
-        <f>'CubicTest '!C16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.0935834797457396E-2</v>
+        <f>'CubicTest '!C16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.1007181528791514E-2</v>
       </c>
       <c r="D22" s="6">
         <v>4.5556306725294003E-2</v>
@@ -9238,7 +9310,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="92" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -9251,42 +9323,42 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="89"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
-      <c r="G24" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="90"/>
+      <c r="G24" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="96"/>
       <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="6">
-        <f>ComponentsData!$B$1*'CubicTest '!$B$8/('CubicTest '!$C$23-'CubicTest '!B22)-B20/($C$23^2 +B22*$C$23)</f>
-        <v>20.655008831181359</v>
+        <f>ComponentsData!$C$1*'CubicTest '!$B$8/('CubicTest '!$C$23-'CubicTest '!B22)-B20/($C$23^2 +B22*$C$23)</f>
+        <v>2113431.082514164</v>
       </c>
       <c r="C25" s="6">
-        <f>ComponentsData!$B$1*'CubicTest '!$B$8/('CubicTest '!$C$23-'CubicTest '!C22)-C20/($C$23^2 +2*C22*$C$23-C22^2)</f>
-        <v>20.427443990494176</v>
+        <f>ComponentsData!$C$1*'CubicTest '!$B$8/('CubicTest '!$C$23-'CubicTest '!C22)-C20/($C$23^2 +2*C22*$C$23-C22^2)</f>
+        <v>2090977.3611918697</v>
       </c>
       <c r="D25" s="6">
-        <v>20.643830517734798</v>
+        <v>20.856392209890799</v>
       </c>
       <c r="E25" s="7">
-        <v>20.416487251292999</v>
-      </c>
-      <c r="G25" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="91"/>
+        <v>20.6351177035781</v>
+      </c>
+      <c r="G25" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="97"/>
       <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="88" t="s">
-        <v>47</v>
+      <c r="A26" s="92" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -9297,70 +9369,70 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="G26" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I26" s="51"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="89"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="6"/>
       <c r="C27" s="33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6">
-        <f>B20*$C$26/((ComponentsData!$B$1*'CubicTest '!$B$8)^2)</f>
-        <v>0.23561777176634383</v>
+        <f>B20*$C$26/((ComponentsData!$C$1*'CubicTest '!$B$8)^2)</f>
+        <v>2.2539278903238849E-6</v>
       </c>
       <c r="E27" s="7">
-        <f>C20*$C$26/((ComponentsData!$B$1*'CubicTest '!$B$8)^2)</f>
-        <v>0.24638492925474975</v>
+        <f>C20*$C$26/((ComponentsData!$C$1*'CubicTest '!$B$8)^2)</f>
+        <v>2.3562375308000582E-6</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="53">
-        <f>'CubicTest '!C16*(ComponentsData!$B$1*ComponentsData!$C$6)/(ComponentsData!$C$5)</f>
-        <v>1.8676504821640585E-2</v>
+        <f>'CubicTest '!C16*(ComponentsData!$C$1*ComponentsData!$D$6)/(ComponentsData!$D$5)</f>
+        <v>1.8970414589228459E-2</v>
       </c>
       <c r="H27" s="53">
-        <f>'CubicTest '!C16 * (ComponentsData!$B$1*ComponentsData!$B$6) / (ComponentsData!$B$5)</f>
-        <v>4.0935834797457396E-2</v>
+        <f>'CubicTest '!C16 * (ComponentsData!$C$1*ComponentsData!$C$6) / (ComponentsData!$C$5)</f>
+        <v>4.1007181528791514E-2</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1">
-      <c r="A28" s="89"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="6">
-        <f>B22*$C$26/((ComponentsData!$B$1*'CubicTest '!$B$8))</f>
-        <v>3.1308975010897494E-2</v>
+        <f>B22*$C$26/((ComponentsData!$C$1*'CubicTest '!$B$8))</f>
+        <v>3.0954369108394541E-7</v>
       </c>
       <c r="E28" s="7">
-        <f>C22*$C$26/((ComponentsData!$B$1*'CubicTest '!$B$8))</f>
-        <v>2.8112944336119751E-2</v>
+        <f>C22*$C$26/((ComponentsData!$C$1*'CubicTest '!$B$8))</f>
+        <v>2.7794536723131612E-7</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="54">
-        <v>1.8662849078412501E-2</v>
+        <v>1.8676504821640585E-2</v>
       </c>
       <c r="H28" s="10">
-        <v>4.0905903648446297E-2</v>
+        <v>4.0935834797457396E-2</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="89"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="6">
         <f>1-(B6-1)*D28</f>
@@ -9368,113 +9440,113 @@
       </c>
       <c r="E29" s="7">
         <f>1-(C6-1)*E28</f>
-        <v>0.97188705566388023</v>
+        <v>0.99999972205463272</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="89"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D30" s="6">
         <f>D27-B6*D28-B6*D28^2+B7*D28^2</f>
-        <v>0.20332854483921334</v>
+        <v>1.9443841034226428E-6</v>
       </c>
       <c r="E30" s="7">
         <f>E27-C6*E28-C6*E28^2+C7*E28^2</f>
-        <v>0.18778802766477296</v>
+        <v>1.8003465645765445E-6</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="89"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="6">
         <f>D27*D28+B7*D28^2+B7*D28^3</f>
-        <v>7.3769509283558082E-3</v>
+        <v>6.9768915860790544E-13</v>
       </c>
       <c r="E31" s="7">
         <f>E27*E28+C7*E28^2+C7*E28^3</f>
-        <v>6.1140494440929585E-3</v>
+        <v>5.7765165714479275E-13</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="89"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" s="6">
         <f>3*D30-D29^2</f>
-        <v>-0.39001436548236001</v>
+        <v>-0.99999416684768971</v>
       </c>
       <c r="E32" s="7">
         <f>3*E30-E29^2</f>
-        <v>-0.38120036597268736</v>
+        <v>-0.99999404306964901</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="89"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" s="6">
         <f>-D29^3+4.5*D29*D30-13.5*D31</f>
-        <v>-0.18461038575634342</v>
+        <v>-0.99999125028095337</v>
       </c>
       <c r="E33" s="7">
         <f>-E29^3+4.5*E29*E30-13.5*E31</f>
-        <v>-0.17926023885437831</v>
+        <v>-0.99999106461463949</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="89"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" s="6">
         <f>D32^3+D33^2</f>
-        <v>-2.5244560681947407E-2</v>
+        <v>-6.6816552291015796E-12</v>
       </c>
       <c r="E34" s="7">
         <f>E32^3+E33^2</f>
-        <v>-2.3259409636274847E-2</v>
+        <v>-6.2817528956315982E-12</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="89"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="6">
         <f>ACOS(-D33/SQRT(-D32^3))</f>
-        <v>0.71064590926441984</v>
+        <v>2.5849112657017059E-6</v>
       </c>
       <c r="E35" s="7">
         <f>ACOS(-E33/SQRT(-E32^3))</f>
-        <v>0.70494456200473299</v>
+        <v>2.5063646817979901E-6</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="89"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -9482,87 +9554,87 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B37" s="42">
         <f>(1/3)*(D29+2*SQRT(-D32)*COS((D35/3)+120*(PI()/180)))</f>
-        <v>4.6362135571462883E-2</v>
+        <v>4.7472863932510967E-7</v>
       </c>
       <c r="C37" s="42">
         <f>(1/3)*(E29+2*SQRT(-E32)*COS((E35/3)+120*(PI()/180)))</f>
-        <v>4.0819590031520837E-2</v>
+        <v>4.1782619305171426E-7</v>
       </c>
       <c r="D37" s="6">
-        <v>4.6362135571463098E-2</v>
+        <v>4.7362482085528998E-2</v>
       </c>
       <c r="E37" s="7">
-        <v>4.08195900315209E-2</v>
+        <v>4.1746156910153098E-2</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1">
       <c r="A38" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" s="43">
         <f>(1/3)*(D29+2*SQRT(-D32)*COS((D35/3)))</f>
-        <v>0.73804763897418424</v>
+        <v>0.99999805561281363</v>
       </c>
       <c r="C38" s="43">
         <f>(1/3)*(E29+2*SQRT(-E32)*COS((E35/3)))</f>
-        <v>0.72426026984667691</v>
+        <v>0.99999792170490409</v>
       </c>
       <c r="D38" s="11">
-        <v>0.73804763897418502</v>
+        <v>0.75183758108683496</v>
       </c>
       <c r="E38" s="10">
-        <v>0.72426026984667702</v>
+        <v>0.73891142925655096</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="4">
-        <f>ComponentsData!$B$1*'CubicTest '!$B$8*'CubicTest '!B37/'CubicTest '!$C$26</f>
-        <v>6.750885641573745E-2</v>
+        <f>ComponentsData!$C$1*'CubicTest '!$B$8*'CubicTest '!B37/'CubicTest '!$C$26</f>
+        <v>7.0039963909596645E-2</v>
       </c>
       <c r="C39" s="4">
-        <f>ComponentsData!$B$1*'CubicTest '!$B$8*'CubicTest '!C37/'CubicTest '!$C$26</f>
-        <v>5.9438242186656387E-2</v>
+        <f>ComponentsData!$C$1*'CubicTest '!$B$8*'CubicTest '!C37/'CubicTest '!$C$26</f>
+        <v>6.1644756725504651E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>6.7459495809048198E-2</v>
+        <v>6.89654814903089E-2</v>
       </c>
       <c r="E39" s="5">
-        <v>5.9394782589639698E-2</v>
+        <v>6.0787435220975197E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" s="94"/>
       <c r="B40" s="11">
-        <f>ComponentsData!$B$1*'CubicTest '!$B$8*'CubicTest '!B38/'CubicTest '!$C$26</f>
-        <v>1.0746863032373055</v>
+        <f>ComponentsData!$C$1*'CubicTest '!$B$8*'CubicTest '!B38/'CubicTest '!$C$26</f>
+        <v>147536.55440792299</v>
       </c>
       <c r="C40" s="11">
-        <f>ComponentsData!$B$1*'CubicTest '!$B$8*'CubicTest '!C38/'CubicTest '!$C$26</f>
-        <v>1.0546102322947803</v>
+        <f>ComponentsData!$C$1*'CubicTest '!$B$8*'CubicTest '!C38/'CubicTest '!$C$26</f>
+        <v>147536.53465157299</v>
       </c>
       <c r="D40" s="11">
-        <v>1.07390052236728</v>
+        <v>1.09476612075627</v>
       </c>
       <c r="E40" s="10">
-        <v>1.0538391304919801</v>
+        <v>1.0759440859823599</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="88" t="s">
-        <v>59</v>
+      <c r="A41" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D41" s="4">
         <f>SQRT(B6^2-4*B7)</f>
@@ -9574,38 +9646,38 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="89"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="6"/>
       <c r="C42" s="95" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D42" s="6">
         <f>(1/D41) *LN((2*B39+(2+D41)*B22)/(2*B39+(2-D41)*B22))</f>
-        <v>0.40869197018332898</v>
+        <v>0.39993590011719282</v>
       </c>
       <c r="E42" s="7">
         <f>(1/E41) *LN((2*C39+(2+E41)*C22)/(2*C39+(2-E41)*C22))</f>
-        <v>0.46499192028936837</v>
+        <v>0.45259769407690564</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="89"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="6"/>
       <c r="C43" s="95"/>
       <c r="D43" s="6">
         <f>(1/D41) *LN((2*B40+(2+D41)*B22)/(2*B40+(2-D41)*B22))</f>
-        <v>4.0700627475787107E-2</v>
+        <v>3.0954419699422735E-7</v>
       </c>
       <c r="E43" s="7">
         <f>(1/E41) *LN((2*C40+(2+E41)*C22)/(2*C40+(2-E41)*C22))</f>
-        <v>3.7400528309793235E-2</v>
+        <v>2.7794586756060517E-7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="89"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D44" s="6">
         <f>B22/B22</f>
@@ -9617,10 +9689,10 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="89"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="6"/>
       <c r="C45" s="95" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D45" s="6">
         <f>2*B20/B20</f>
@@ -9632,7 +9704,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="89"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="6"/>
       <c r="C46" s="95"/>
       <c r="D46" s="6">
@@ -9645,37 +9717,37 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="89"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="6">
-        <f>EXP(-LN((B39-B$22)/B39)+(B37-1)*D$44+(B20/($B$8*B$22*ComponentsData!$B$1))*('CubicTest '!D$44-'CubicTest '!D45)*'CubicTest '!D42-LN('CubicTest '!B37))</f>
-        <v>1.1816253007300674</v>
+        <f>EXP(-LN((B39-B$22)/B39)+(B37-1)*D$44+(B20/($B$8*B$22*ComponentsData!$C$1))*('CubicTest '!D$44-'CubicTest '!D45)*'CubicTest '!D42-LN('CubicTest '!B37))</f>
+        <v>121065.38370773982</v>
       </c>
       <c r="C47" s="6">
-        <f>EXP(-LN((C39-C$22)/C39)+(C37-1)*E$44+(C20/($B$8*C$22*ComponentsData!$B$1))*('CubicTest '!E$44-'CubicTest '!E45)*'CubicTest '!E42-LN('CubicTest '!C37))</f>
-        <v>0.51232786991648427</v>
+        <f>EXP(-LN((C39-C$22)/C39)+(C37-1)*E$44+(C20/($B$8*C$22*ComponentsData!$C$1))*('CubicTest '!E$44-'CubicTest '!E45)*'CubicTest '!E42-LN('CubicTest '!C37))</f>
+        <v>56706.870570007086</v>
       </c>
       <c r="D47" s="6">
-        <v>1.1816253007300679</v>
+        <v>1.2674579278679701</v>
       </c>
       <c r="E47" s="7">
-        <v>0.51232786991648382</v>
+        <v>0.58087185274443698</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="94"/>
       <c r="B48" s="11">
-        <f>EXP(-LN((B40-B$22)/B40)+(B38-1)*D$44+(B20/($B$8*B$22*ComponentsData!$B$1))*('CubicTest '!D$44-'CubicTest '!D46)*'CubicTest '!D43-LN('CubicTest '!B38))</f>
-        <v>0.80159377432915557</v>
+        <f>EXP(-LN((B40-B$22)/B40)+(B38-1)*D$44+(B20/($B$8*B$22*ComponentsData!$C$1))*('CubicTest '!D$44-'CubicTest '!D46)*'CubicTest '!D43-LN('CubicTest '!B38))</f>
+        <v>0.99999805561654731</v>
       </c>
       <c r="C48" s="11">
-        <f>EXP(-LN((C40-C$22)/C40)+(C38-1)*E$44+(C20/($B$8*C$22*ComponentsData!$B$1))*('CubicTest '!E$44-'CubicTest '!E46)*'CubicTest '!E43-LN('CubicTest '!C38))</f>
-        <v>0.78558383553474165</v>
+        <f>EXP(-LN((C40-C$22)/C40)+(C38-1)*E$44+(C20/($B$8*C$22*ComponentsData!$C$1))*('CubicTest '!E$44-'CubicTest '!E46)*'CubicTest '!E43-LN('CubicTest '!C38))</f>
+        <v>0.99999792170853063</v>
       </c>
       <c r="D48" s="11">
-        <v>0.80159377432915602</v>
+        <v>0.80892723400206501</v>
       </c>
       <c r="E48" s="10">
-        <v>0.78558383553474098</v>
+        <v>0.79354817091952101</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -9686,6 +9758,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="A41:A48"/>
@@ -9694,11 +9771,6 @@
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A36"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9710,13 +9782,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="2"/>
+    <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9730,53 +9804,45 @@
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="4">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.3</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6">
         <v>300</v>
       </c>
-      <c r="D5" s="7">
-        <v>300</v>
-      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="94"/>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="C6" s="9">
-        <f>B1 *C5/C4</f>
-        <v>82.06</v>
-      </c>
-      <c r="D6" s="10">
-        <v>82.06</v>
-      </c>
+        <f>universalGasConstant *pressureTestTemperature/molarVolume</f>
+        <v>191872.43076923076</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -9785,60 +9851,50 @@
       <c r="C7" s="4">
         <v>500</v>
       </c>
-      <c r="D7" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="89"/>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="93"/>
+      <c r="B8" s="82" t="s">
+        <v>155</v>
       </c>
       <c r="C8" s="6">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7">
-        <v>24</v>
-      </c>
+        <v>101325</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="94"/>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
+      <c r="B9" s="84" t="s">
+        <v>154</v>
       </c>
       <c r="C9" s="11">
-        <f>B1*C7/C8</f>
-        <v>1.709583333333333</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1.709583333333333</v>
-      </c>
+        <f>universalGasConstant*C7/C8</f>
+        <v>41.028729336294106</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="88" t="s">
-        <v>17</v>
+      <c r="A10" s="92" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4">
         <v>15.13</v>
       </c>
-      <c r="D10" s="5">
-        <v>15.13</v>
-      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="89"/>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
+      <c r="A11" s="93"/>
+      <c r="B11" s="82" t="s">
+        <v>155</v>
       </c>
       <c r="C11" s="6">
-        <v>23.23</v>
-      </c>
-      <c r="D11" s="7">
-        <v>23.23</v>
-      </c>
+        <v>203000.23</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="94"/>
@@ -9846,12 +9902,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="11">
-        <f>C11*C10/B1</f>
-        <v>4283.0843285400933</v>
-      </c>
-      <c r="D12" s="10">
-        <v>4283.0843285400933</v>
-      </c>
+        <f>C11*C10/universalGasConstant</f>
+        <v>369.40331026431988</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
